--- a/Excel/04-Amt-by-period.xlsx
+++ b/Excel/04-Amt-by-period.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c8862359375ebd62/A5/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="11_4407D90E547F242EEA22E4B75BC69E7FC8C566A2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D8737EAC-3D27-4312-AF2C-64D82484B252}"/>
+  <xr:revisionPtr revIDLastSave="33" documentId="11_4407D90E547F242EEA22E4B75BC69E7FC8C566A2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{87EAA859-FCD7-40B8-AF09-A7B96D1E16D3}"/>
   <bookViews>
-    <workbookView xWindow="16284" yWindow="0" windowWidth="6756" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13416" yWindow="780" windowWidth="9624" windowHeight="11436" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="250131" sheetId="2" r:id="rId1"/>
-    <sheet name="1230" sheetId="1" r:id="rId2"/>
+    <sheet name="250221" sheetId="3" r:id="rId1"/>
+    <sheet name="250131" sheetId="2" r:id="rId2"/>
+    <sheet name="1230" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="9">
   <si>
     <t>As end of</t>
   </si>
@@ -448,10 +449,341 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9C4D270-1B52-4C5B-9E28-60314EA92662}">
+  <dimension ref="A1:E23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="19.44140625" customWidth="1"/>
+    <col min="3" max="3" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="9">
+        <v>45709</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1">
+        <v>1246.21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E2" s="8">
+        <f>(E1-E13)/E13</f>
+        <v>-0.10998350247462881</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
+        <v>4</v>
+      </c>
+      <c r="B4" s="7">
+        <v>1748830</v>
+      </c>
+      <c r="C4" s="7">
+        <v>-661680</v>
+      </c>
+      <c r="D4" s="5">
+        <f>C4/B4</f>
+        <v>-0.37835581503062049</v>
+      </c>
+      <c r="E4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <v>3</v>
+      </c>
+      <c r="B5" s="7">
+        <v>2442000</v>
+      </c>
+      <c r="C5" s="7">
+        <v>-1472320</v>
+      </c>
+      <c r="D5" s="5">
+        <f>C5/B5</f>
+        <v>-0.60291564291564292</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>1</v>
+      </c>
+      <c r="B6" s="7">
+        <v>2468900</v>
+      </c>
+      <c r="C6" s="7">
+        <v>-1522080</v>
+      </c>
+      <c r="D6" s="5">
+        <f>C6/B6</f>
+        <v>-0.61650127587184578</v>
+      </c>
+      <c r="E6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="4"/>
+      <c r="B7" s="6">
+        <f>SUM(B4:B6)</f>
+        <v>6659730</v>
+      </c>
+      <c r="C7" s="6">
+        <f>SUM(C4:C6)</f>
+        <v>-3656080</v>
+      </c>
+      <c r="D7" s="5">
+        <f>C7/B7</f>
+        <v>-0.54898321703732733</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B8" s="6"/>
+      <c r="C8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <v>2</v>
+      </c>
+      <c r="B9" s="7">
+        <v>4887100</v>
+      </c>
+      <c r="C9" s="7">
+        <v>-1688230</v>
+      </c>
+      <c r="D9" s="5">
+        <f>C9/B9</f>
+        <v>-0.34544617462298705</v>
+      </c>
+      <c r="E9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B10" s="7"/>
+      <c r="C10" s="7">
+        <v>280009</v>
+      </c>
+      <c r="D10" s="5">
+        <f>C10/B9</f>
+        <v>5.7295533138261953E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="6">
+        <f>B7+B9</f>
+        <v>11546830</v>
+      </c>
+      <c r="C11" s="6">
+        <f>C7+C9</f>
+        <v>-5344310</v>
+      </c>
+      <c r="D11" s="5">
+        <f>C11/B11</f>
+        <v>-0.46283785246686754</v>
+      </c>
+      <c r="E11">
+        <f>E4+E5+E6+E9</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="9">
+        <v>46021</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1400.21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E14" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
+        <v>4</v>
+      </c>
+      <c r="B16" s="7">
+        <v>1748830</v>
+      </c>
+      <c r="C16" s="7">
+        <v>-703370</v>
+      </c>
+      <c r="D16" s="5">
+        <v>-0.40219461011075974</v>
+      </c>
+      <c r="E16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="4">
+        <v>3</v>
+      </c>
+      <c r="B17" s="7">
+        <v>2442000</v>
+      </c>
+      <c r="C17" s="7">
+        <v>-1456140</v>
+      </c>
+      <c r="D17" s="5">
+        <v>-0.59628992628992628</v>
+      </c>
+      <c r="E17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="4">
+        <v>1</v>
+      </c>
+      <c r="B18" s="7">
+        <v>2597400</v>
+      </c>
+      <c r="C18" s="7">
+        <v>-1577080</v>
+      </c>
+      <c r="D18" s="5">
+        <v>-0.6071764071764072</v>
+      </c>
+      <c r="E18">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="4"/>
+      <c r="B19" s="6">
+        <v>6788230</v>
+      </c>
+      <c r="C19" s="6">
+        <v>-3736590</v>
+      </c>
+      <c r="D19" s="5">
+        <v>-0.55045129584589803</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B20" s="6"/>
+      <c r="C20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="5"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="4">
+        <v>2</v>
+      </c>
+      <c r="B21" s="7">
+        <v>4744300</v>
+      </c>
+      <c r="C21" s="7">
+        <v>-1773850</v>
+      </c>
+      <c r="D21" s="5">
+        <v>-0.37389077419218852</v>
+      </c>
+      <c r="E21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B22" s="7"/>
+      <c r="C22" s="7">
+        <v>262703.5</v>
+      </c>
+      <c r="D22" s="5">
+        <v>5.5372446936323587E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="6">
+        <v>11532530</v>
+      </c>
+      <c r="C23" s="6">
+        <v>-5510440</v>
+      </c>
+      <c r="D23" s="5">
+        <v>-0.47781709650874526</v>
+      </c>
+      <c r="E23">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC4C31B2-332E-43CB-8F48-59EA1BD2A5D3}">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -778,12 +1110,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="A1:E23"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Excel/04-Amt-by-period.xlsx
+++ b/Excel/04-Amt-by-period.xlsx
@@ -1,21 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c8862359375ebd62/A5/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="33" documentId="11_4407D90E547F242EEA22E4B75BC69E7FC8C566A2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{87EAA859-FCD7-40B8-AF09-A7B96D1E16D3}"/>
+  <xr:revisionPtr revIDLastSave="183" documentId="11_4407D90E547F242EEA22E4B75BC69E7FC8C566A2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DC385A8A-6553-4769-9BE1-7A78E7FCBA58}"/>
   <bookViews>
-    <workbookView xWindow="13416" yWindow="780" windowWidth="9624" windowHeight="11436" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14244" yWindow="1176" windowWidth="8904" windowHeight="11628" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="250221" sheetId="3" r:id="rId1"/>
-    <sheet name="250131" sheetId="2" r:id="rId2"/>
-    <sheet name="1230" sheetId="1" r:id="rId3"/>
+    <sheet name="250725" sheetId="15" r:id="rId1"/>
+    <sheet name="250718" sheetId="14" r:id="rId2"/>
+    <sheet name="250704" sheetId="13" r:id="rId3"/>
+    <sheet name="250627" sheetId="12" r:id="rId4"/>
+    <sheet name="250620" sheetId="11" r:id="rId5"/>
+    <sheet name="250613" sheetId="10" r:id="rId6"/>
+    <sheet name="250530" sheetId="9" r:id="rId7"/>
+    <sheet name="250523" sheetId="8" r:id="rId8"/>
+    <sheet name="250516" sheetId="7" r:id="rId9"/>
+    <sheet name="250509" sheetId="6" r:id="rId10"/>
+    <sheet name="250502" sheetId="5" r:id="rId11"/>
+    <sheet name="250411" sheetId="4" r:id="rId12"/>
+    <sheet name="250221" sheetId="3" r:id="rId13"/>
+    <sheet name="250131" sheetId="2" r:id="rId14"/>
+    <sheet name="1230" sheetId="1" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,8 +46,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="9">
   <si>
     <t>As end of</t>
   </si>
@@ -151,6 +185,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -449,10 +487,672 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9C4D270-1B52-4C5B-9E28-60314EA92662}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F32CB65-9456-4E75-B848-3BAB2F7365C7}">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="19.44140625" customWidth="1"/>
+    <col min="3" max="3" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="9">
+        <v>45863</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1">
+        <v>1217.1500000000001</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E2" s="8">
+        <f>(E1-E13)/E13</f>
+        <v>8.7602977009399834E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
+        <v>4</v>
+      </c>
+      <c r="B4" s="7">
+        <v>416540</v>
+      </c>
+      <c r="C4" s="7">
+        <v>-284400</v>
+      </c>
+      <c r="D4" s="5">
+        <f>C4/B4</f>
+        <v>-0.68276756133864691</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <v>3</v>
+      </c>
+      <c r="B5" s="7">
+        <v>3591550</v>
+      </c>
+      <c r="C5" s="7">
+        <v>-1326800</v>
+      </c>
+      <c r="D5" s="5">
+        <f>C5/B5</f>
+        <v>-0.36942267266222106</v>
+      </c>
+      <c r="E5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>1</v>
+      </c>
+      <c r="B6" s="7">
+        <v>1632240</v>
+      </c>
+      <c r="C6" s="7">
+        <v>-1152920</v>
+      </c>
+      <c r="D6" s="5">
+        <f>C6/B6</f>
+        <v>-0.7063422045777582</v>
+      </c>
+      <c r="E6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="4"/>
+      <c r="B7" s="6">
+        <f>SUM(B4:B6)</f>
+        <v>5640330</v>
+      </c>
+      <c r="C7" s="6">
+        <f>SUM(C4:C6)</f>
+        <v>-2764120</v>
+      </c>
+      <c r="D7" s="5">
+        <f>C7/B7</f>
+        <v>-0.49006352465192637</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B8" s="6"/>
+      <c r="C8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <v>2</v>
+      </c>
+      <c r="B9" s="7">
+        <v>5036250</v>
+      </c>
+      <c r="C9" s="7">
+        <v>-1802045</v>
+      </c>
+      <c r="D9" s="5">
+        <f>C9/B9</f>
+        <v>-0.35781484239265327</v>
+      </c>
+      <c r="E9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B10" s="7"/>
+      <c r="C10" s="7">
+        <v>276670</v>
+      </c>
+      <c r="D10" s="5">
+        <f>C10/B9</f>
+        <v>5.4935716058575328E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="6">
+        <f>B7+B9</f>
+        <v>10676580</v>
+      </c>
+      <c r="C11" s="6">
+        <f>C7+C9</f>
+        <v>-4566165</v>
+      </c>
+      <c r="D11" s="5">
+        <f>C11/B11</f>
+        <v>-0.42768049319164003</v>
+      </c>
+      <c r="E11">
+        <f>E4+E5+E6+E9</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="9">
+        <v>45856</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1206.58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E14" s="8">
+        <v>7.7361287211814803E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
+        <v>4</v>
+      </c>
+      <c r="B16" s="7">
+        <v>503540</v>
+      </c>
+      <c r="C16" s="7">
+        <v>-350840</v>
+      </c>
+      <c r="D16" s="5">
+        <v>-0.69674703102037572</v>
+      </c>
+      <c r="E16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="4">
+        <v>3</v>
+      </c>
+      <c r="B17" s="7">
+        <v>3591550</v>
+      </c>
+      <c r="C17" s="7">
+        <v>-1314900</v>
+      </c>
+      <c r="D17" s="5">
+        <v>-0.36610933997856077</v>
+      </c>
+      <c r="E17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="4">
+        <v>1</v>
+      </c>
+      <c r="B18" s="7">
+        <v>1632240</v>
+      </c>
+      <c r="C18" s="7">
+        <v>-1153940</v>
+      </c>
+      <c r="D18" s="5">
+        <v>-0.70696711267950796</v>
+      </c>
+      <c r="E18">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="4"/>
+      <c r="B19" s="6">
+        <v>5727330</v>
+      </c>
+      <c r="C19" s="6">
+        <v>-2819680</v>
+      </c>
+      <c r="D19" s="5">
+        <v>-0.49232015616351771</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B20" s="6"/>
+      <c r="C20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="5"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="4">
+        <v>2</v>
+      </c>
+      <c r="B21" s="7">
+        <v>5036250</v>
+      </c>
+      <c r="C21" s="7">
+        <v>-1834700</v>
+      </c>
+      <c r="D21" s="5">
+        <v>-0.36429883345743358</v>
+      </c>
+      <c r="E21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B22" s="7"/>
+      <c r="C22" s="7">
+        <v>276670</v>
+      </c>
+      <c r="D22" s="5">
+        <v>5.4935716058575328E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="6">
+        <v>10763580</v>
+      </c>
+      <c r="C23" s="6">
+        <v>-4654380</v>
+      </c>
+      <c r="D23" s="5">
+        <v>-0.43241932516876358</v>
+      </c>
+      <c r="E23">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E4B6815-B29A-446B-B4C9-96F02B6A5E9D}">
+  <dimension ref="A1:E23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="19.44140625" customWidth="1"/>
+    <col min="3" max="3" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="9">
+        <v>45758</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1">
+        <v>1210.94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E2" s="8">
+        <f>(E1-E13)/E13</f>
+        <v>9.975145540376016E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
+        <v>4</v>
+      </c>
+      <c r="B4" s="7">
+        <v>1841230</v>
+      </c>
+      <c r="C4" s="7">
+        <v>-710950</v>
+      </c>
+      <c r="D4" s="5">
+        <f>C4/B4</f>
+        <v>-0.38612775155738283</v>
+      </c>
+      <c r="E4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <v>3</v>
+      </c>
+      <c r="B5" s="7">
+        <v>2380500</v>
+      </c>
+      <c r="C5" s="7">
+        <v>-1391200</v>
+      </c>
+      <c r="D5" s="5">
+        <f>C5/B5</f>
+        <v>-0.58441503885738288</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>1</v>
+      </c>
+      <c r="B6" s="7">
+        <v>2091200</v>
+      </c>
+      <c r="C6" s="7">
+        <v>-1352900</v>
+      </c>
+      <c r="D6" s="5">
+        <f>C6/B6</f>
+        <v>-0.64694912012241779</v>
+      </c>
+      <c r="E6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="4"/>
+      <c r="B7" s="6">
+        <f>SUM(B4:B6)</f>
+        <v>6312930</v>
+      </c>
+      <c r="C7" s="6">
+        <f>SUM(C4:C6)</f>
+        <v>-3455050</v>
+      </c>
+      <c r="D7" s="5">
+        <f>C7/B7</f>
+        <v>-0.5472973722186053</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B8" s="6"/>
+      <c r="C8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <v>2</v>
+      </c>
+      <c r="B9" s="7">
+        <v>4924600</v>
+      </c>
+      <c r="C9" s="7">
+        <v>-1735475</v>
+      </c>
+      <c r="D9" s="5">
+        <f>C9/B9</f>
+        <v>-0.35240933273768427</v>
+      </c>
+      <c r="E9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B10" s="7"/>
+      <c r="C10" s="7">
+        <v>265724.25</v>
+      </c>
+      <c r="D10" s="5">
+        <f>C10/B9</f>
+        <v>5.3958544856435038E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="6">
+        <f>B7+B9</f>
+        <v>11237530</v>
+      </c>
+      <c r="C11" s="6">
+        <f>C7+C9</f>
+        <v>-5190525</v>
+      </c>
+      <c r="D11" s="5">
+        <f>C11/B11</f>
+        <v>-0.46189198160093897</v>
+      </c>
+      <c r="E11">
+        <f>E4+E5+E6+E9</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="9">
+        <v>45758</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1198.98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E14" s="8">
+        <v>6.2303971080750566E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
+        <v>4</v>
+      </c>
+      <c r="B16" s="7">
+        <v>1841230</v>
+      </c>
+      <c r="C16" s="7">
+        <v>-752850</v>
+      </c>
+      <c r="D16" s="5">
+        <v>-0.40888427844430081</v>
+      </c>
+      <c r="E16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="4">
+        <v>3</v>
+      </c>
+      <c r="B17" s="7">
+        <v>2380500</v>
+      </c>
+      <c r="C17" s="7">
+        <v>-1398380</v>
+      </c>
+      <c r="D17" s="5">
+        <v>-0.58743121193026671</v>
+      </c>
+      <c r="E17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="4">
+        <v>1</v>
+      </c>
+      <c r="B18" s="7">
+        <v>2091200</v>
+      </c>
+      <c r="C18" s="7">
+        <v>-1372640</v>
+      </c>
+      <c r="D18" s="5">
+        <v>-0.65638867635807197</v>
+      </c>
+      <c r="E18">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="4"/>
+      <c r="B19" s="6">
+        <v>6312930</v>
+      </c>
+      <c r="C19" s="6">
+        <v>-3523870</v>
+      </c>
+      <c r="D19" s="5">
+        <v>-0.55819880784358455</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B20" s="6"/>
+      <c r="C20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="5"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="4">
+        <v>2</v>
+      </c>
+      <c r="B21" s="7">
+        <v>4924600</v>
+      </c>
+      <c r="C21" s="7">
+        <v>-1799575</v>
+      </c>
+      <c r="D21" s="5">
+        <v>-0.3654256183243309</v>
+      </c>
+      <c r="E21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B22" s="7"/>
+      <c r="C22" s="7">
+        <v>272742</v>
+      </c>
+      <c r="D22" s="5">
+        <v>5.5383584453559682E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="6">
+        <v>11237530</v>
+      </c>
+      <c r="C23" s="6">
+        <v>-5323445</v>
+      </c>
+      <c r="D23" s="5">
+        <v>-0.47372020363905593</v>
+      </c>
+      <c r="E23">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CEBF241-CA72-4CB5-8C3F-136F3E8408B6}">
+  <dimension ref="A1:E23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -468,6 +1168,668 @@
         <v>0</v>
       </c>
       <c r="C1" s="9">
+        <v>45758</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1">
+        <v>1198.98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E2" s="8">
+        <f>(E1-E13)/E13</f>
+        <v>6.2303971080750566E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
+        <v>4</v>
+      </c>
+      <c r="B4" s="7">
+        <v>1841230</v>
+      </c>
+      <c r="C4" s="7">
+        <v>-752850</v>
+      </c>
+      <c r="D4" s="5">
+        <f>C4/B4</f>
+        <v>-0.40888427844430081</v>
+      </c>
+      <c r="E4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <v>3</v>
+      </c>
+      <c r="B5" s="7">
+        <v>2380500</v>
+      </c>
+      <c r="C5" s="7">
+        <v>-1398380</v>
+      </c>
+      <c r="D5" s="5">
+        <f>C5/B5</f>
+        <v>-0.58743121193026671</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>1</v>
+      </c>
+      <c r="B6" s="7">
+        <v>2091200</v>
+      </c>
+      <c r="C6" s="7">
+        <v>-1372640</v>
+      </c>
+      <c r="D6" s="5">
+        <f>C6/B6</f>
+        <v>-0.65638867635807197</v>
+      </c>
+      <c r="E6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="4"/>
+      <c r="B7" s="6">
+        <f>SUM(B4:B6)</f>
+        <v>6312930</v>
+      </c>
+      <c r="C7" s="6">
+        <f>SUM(C4:C6)</f>
+        <v>-3523870</v>
+      </c>
+      <c r="D7" s="5">
+        <f>C7/B7</f>
+        <v>-0.55819880784358455</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B8" s="6"/>
+      <c r="C8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <v>2</v>
+      </c>
+      <c r="B9" s="7">
+        <v>4924600</v>
+      </c>
+      <c r="C9" s="7">
+        <v>-1799575</v>
+      </c>
+      <c r="D9" s="5">
+        <f>C9/B9</f>
+        <v>-0.3654256183243309</v>
+      </c>
+      <c r="E9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B10" s="7"/>
+      <c r="C10" s="7">
+        <v>272742</v>
+      </c>
+      <c r="D10" s="5">
+        <f>C10/B9</f>
+        <v>5.5383584453559682E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="6">
+        <f>B7+B9</f>
+        <v>11237530</v>
+      </c>
+      <c r="C11" s="6">
+        <f>C7+C9</f>
+        <v>-5323445</v>
+      </c>
+      <c r="D11" s="5">
+        <f>C11/B11</f>
+        <v>-0.47372020363905593</v>
+      </c>
+      <c r="E11">
+        <f>E4+E5+E6+E9</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="9">
+        <v>45758</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1128.6600000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E14" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
+        <v>4</v>
+      </c>
+      <c r="B16" s="7">
+        <v>1841230</v>
+      </c>
+      <c r="C16" s="7">
+        <v>-812450</v>
+      </c>
+      <c r="D16" s="5">
+        <v>-0.44125394437414117</v>
+      </c>
+      <c r="E16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="4">
+        <v>3</v>
+      </c>
+      <c r="B17" s="7">
+        <v>2380500</v>
+      </c>
+      <c r="C17" s="7">
+        <v>-1467160</v>
+      </c>
+      <c r="D17" s="5">
+        <v>-0.61632430161730734</v>
+      </c>
+      <c r="E17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="4">
+        <v>1</v>
+      </c>
+      <c r="B18" s="7">
+        <v>2091200</v>
+      </c>
+      <c r="C18" s="7">
+        <v>-1403400</v>
+      </c>
+      <c r="D18" s="5">
+        <v>-0.67109793420045905</v>
+      </c>
+      <c r="E18">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="4"/>
+      <c r="B19" s="6">
+        <v>6312930</v>
+      </c>
+      <c r="C19" s="6">
+        <v>-3683010</v>
+      </c>
+      <c r="D19" s="5">
+        <v>-0.58340738769477885</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B20" s="6"/>
+      <c r="C20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="5"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="4">
+        <v>2</v>
+      </c>
+      <c r="B21" s="7">
+        <v>4924600</v>
+      </c>
+      <c r="C21" s="7">
+        <v>-1913690</v>
+      </c>
+      <c r="D21" s="5">
+        <v>-0.38859805872558179</v>
+      </c>
+      <c r="E21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B22" s="7"/>
+      <c r="C22" s="7">
+        <v>280009</v>
+      </c>
+      <c r="D22" s="5">
+        <v>5.6859237298460791E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="6">
+        <v>11237530</v>
+      </c>
+      <c r="C23" s="6">
+        <v>-5596700</v>
+      </c>
+      <c r="D23" s="5">
+        <v>-0.49803649022516516</v>
+      </c>
+      <c r="E23">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37D4DEBF-7012-4D3C-9A89-43C32C47B6EC}">
+  <dimension ref="A1:E23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="19.44140625" customWidth="1"/>
+    <col min="3" max="3" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="9">
+        <v>45758</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1">
+        <v>1128.6600000000001</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E2" s="8">
+        <f>(E1-E13)/E13</f>
+        <v>-9.4325996421148889E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
+        <v>4</v>
+      </c>
+      <c r="B4" s="7">
+        <v>1841230</v>
+      </c>
+      <c r="C4" s="7">
+        <v>-812450</v>
+      </c>
+      <c r="D4" s="5">
+        <f>C4/B4</f>
+        <v>-0.44125394437414117</v>
+      </c>
+      <c r="E4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <v>3</v>
+      </c>
+      <c r="B5" s="7">
+        <v>2380500</v>
+      </c>
+      <c r="C5" s="7">
+        <v>-1467160</v>
+      </c>
+      <c r="D5" s="5">
+        <f>C5/B5</f>
+        <v>-0.61632430161730734</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>1</v>
+      </c>
+      <c r="B6" s="7">
+        <v>2091200</v>
+      </c>
+      <c r="C6" s="7">
+        <v>-1403400</v>
+      </c>
+      <c r="D6" s="5">
+        <f>C6/B6</f>
+        <v>-0.67109793420045905</v>
+      </c>
+      <c r="E6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="4"/>
+      <c r="B7" s="6">
+        <f>SUM(B4:B6)</f>
+        <v>6312930</v>
+      </c>
+      <c r="C7" s="6">
+        <f>SUM(C4:C6)</f>
+        <v>-3683010</v>
+      </c>
+      <c r="D7" s="5">
+        <f>C7/B7</f>
+        <v>-0.58340738769477885</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B8" s="6"/>
+      <c r="C8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <v>2</v>
+      </c>
+      <c r="B9" s="7">
+        <v>4924600</v>
+      </c>
+      <c r="C9" s="7">
+        <v>-1913690</v>
+      </c>
+      <c r="D9" s="5">
+        <f>C9/B9</f>
+        <v>-0.38859805872558179</v>
+      </c>
+      <c r="E9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B10" s="7"/>
+      <c r="C10" s="7">
+        <v>280009</v>
+      </c>
+      <c r="D10" s="5">
+        <f>C10/B9</f>
+        <v>5.6859237298460791E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="6">
+        <f>B7+B9</f>
+        <v>11237530</v>
+      </c>
+      <c r="C11" s="6">
+        <f>C7+C9</f>
+        <v>-5596700</v>
+      </c>
+      <c r="D11" s="5">
+        <f>C11/B11</f>
+        <v>-0.49803649022516516</v>
+      </c>
+      <c r="E11">
+        <f>E4+E5+E6+E9</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="9">
+        <v>45709</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1246.21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E14" s="8">
+        <v>-0.10998350247462881</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
+        <v>4</v>
+      </c>
+      <c r="B16" s="7">
+        <v>1748830</v>
+      </c>
+      <c r="C16" s="7">
+        <v>-661680</v>
+      </c>
+      <c r="D16" s="5">
+        <v>-0.37835581503062049</v>
+      </c>
+      <c r="E16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="4">
+        <v>3</v>
+      </c>
+      <c r="B17" s="7">
+        <v>2442000</v>
+      </c>
+      <c r="C17" s="7">
+        <v>-1472320</v>
+      </c>
+      <c r="D17" s="5">
+        <v>-0.60291564291564292</v>
+      </c>
+      <c r="E17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="4">
+        <v>1</v>
+      </c>
+      <c r="B18" s="7">
+        <v>2468900</v>
+      </c>
+      <c r="C18" s="7">
+        <v>-1522080</v>
+      </c>
+      <c r="D18" s="5">
+        <v>-0.61650127587184578</v>
+      </c>
+      <c r="E18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="4"/>
+      <c r="B19" s="6">
+        <v>6659730</v>
+      </c>
+      <c r="C19" s="6">
+        <v>-3656080</v>
+      </c>
+      <c r="D19" s="5">
+        <v>-0.54898321703732733</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B20" s="6"/>
+      <c r="C20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="5"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="4">
+        <v>2</v>
+      </c>
+      <c r="B21" s="7">
+        <v>4887100</v>
+      </c>
+      <c r="C21" s="7">
+        <v>-1688230</v>
+      </c>
+      <c r="D21" s="5">
+        <v>-0.34544617462298705</v>
+      </c>
+      <c r="E21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B22" s="7"/>
+      <c r="C22" s="7">
+        <v>280009</v>
+      </c>
+      <c r="D22" s="5">
+        <v>5.7295533138261953E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="6">
+        <v>11546830</v>
+      </c>
+      <c r="C23" s="6">
+        <v>-5344310</v>
+      </c>
+      <c r="D23" s="5">
+        <v>-0.46283785246686754</v>
+      </c>
+      <c r="E23">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9C4D270-1B52-4C5B-9E28-60314EA92662}">
+  <dimension ref="A1:E23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="19.44140625" customWidth="1"/>
+    <col min="3" max="3" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="9">
         <v>45709</v>
       </c>
       <c r="D1" t="s">
@@ -779,7 +2141,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC4C31B2-332E-43CB-8F48-59EA1BD2A5D3}">
   <dimension ref="A1:E23"/>
   <sheetViews>
@@ -1110,7 +2472,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E23"/>
   <sheetViews>
@@ -1442,4 +2804,2652 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C9EF463-2F30-449E-9ACA-B3134C3C5447}">
+  <dimension ref="A1:E23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="19.44140625" customWidth="1"/>
+    <col min="3" max="3" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="9">
+        <v>45856</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1">
+        <v>1206.58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E2" s="8">
+        <f>(E1-E13)/E13</f>
+        <v>7.7361287211814803E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
+        <v>4</v>
+      </c>
+      <c r="B4" s="7">
+        <v>503540</v>
+      </c>
+      <c r="C4" s="7">
+        <v>-350840</v>
+      </c>
+      <c r="D4" s="5">
+        <f>C4/B4</f>
+        <v>-0.69674703102037572</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <v>3</v>
+      </c>
+      <c r="B5" s="7">
+        <v>3591550</v>
+      </c>
+      <c r="C5" s="7">
+        <v>-1314900</v>
+      </c>
+      <c r="D5" s="5">
+        <f>C5/B5</f>
+        <v>-0.36610933997856077</v>
+      </c>
+      <c r="E5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>1</v>
+      </c>
+      <c r="B6" s="7">
+        <v>1632240</v>
+      </c>
+      <c r="C6" s="7">
+        <v>-1153940</v>
+      </c>
+      <c r="D6" s="5">
+        <f>C6/B6</f>
+        <v>-0.70696711267950796</v>
+      </c>
+      <c r="E6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="4"/>
+      <c r="B7" s="6">
+        <f>SUM(B4:B6)</f>
+        <v>5727330</v>
+      </c>
+      <c r="C7" s="6">
+        <f>SUM(C4:C6)</f>
+        <v>-2819680</v>
+      </c>
+      <c r="D7" s="5">
+        <f>C7/B7</f>
+        <v>-0.49232015616351771</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B8" s="6"/>
+      <c r="C8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <v>2</v>
+      </c>
+      <c r="B9" s="7">
+        <v>5036250</v>
+      </c>
+      <c r="C9" s="7">
+        <v>-1834700</v>
+      </c>
+      <c r="D9" s="5">
+        <f>C9/B9</f>
+        <v>-0.36429883345743358</v>
+      </c>
+      <c r="E9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B10" s="7"/>
+      <c r="C10" s="7">
+        <v>276670</v>
+      </c>
+      <c r="D10" s="5">
+        <f>C10/B9</f>
+        <v>5.4935716058575328E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="6">
+        <f>B7+B9</f>
+        <v>10763580</v>
+      </c>
+      <c r="C11" s="6">
+        <f>C7+C9</f>
+        <v>-4654380</v>
+      </c>
+      <c r="D11" s="5">
+        <f>C11/B11</f>
+        <v>-0.43241932516876358</v>
+      </c>
+      <c r="E11">
+        <f>E4+E5+E6+E9</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="9">
+        <v>45842</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1119.94</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E14" s="8">
+        <v>3.4663069788067456E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
+        <v>4</v>
+      </c>
+      <c r="B16" s="7">
+        <v>677540</v>
+      </c>
+      <c r="C16" s="7">
+        <v>-489280</v>
+      </c>
+      <c r="D16" s="5">
+        <v>-0.72214186616288334</v>
+      </c>
+      <c r="E16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="4">
+        <v>3</v>
+      </c>
+      <c r="B17" s="7">
+        <v>3591550</v>
+      </c>
+      <c r="C17" s="7">
+        <v>-1415000</v>
+      </c>
+      <c r="D17" s="5">
+        <v>-0.39398031490582058</v>
+      </c>
+      <c r="E17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="4">
+        <v>1</v>
+      </c>
+      <c r="B18" s="7">
+        <v>1632240</v>
+      </c>
+      <c r="C18" s="7">
+        <v>-1193370</v>
+      </c>
+      <c r="D18" s="5">
+        <v>-0.73112409939714751</v>
+      </c>
+      <c r="E18">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="4"/>
+      <c r="B19" s="6">
+        <v>5901330</v>
+      </c>
+      <c r="C19" s="6">
+        <v>-3097650</v>
+      </c>
+      <c r="D19" s="5">
+        <v>-0.5249070972136789</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B20" s="6"/>
+      <c r="C20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="5"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="4">
+        <v>2</v>
+      </c>
+      <c r="B21" s="7">
+        <v>4992250</v>
+      </c>
+      <c r="C21" s="7">
+        <v>-1906345</v>
+      </c>
+      <c r="D21" s="5">
+        <v>-0.3818608843707747</v>
+      </c>
+      <c r="E21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B22" s="7"/>
+      <c r="C22" s="7">
+        <v>273102</v>
+      </c>
+      <c r="D22" s="5">
+        <v>5.4705193049226303E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="6">
+        <v>10893580</v>
+      </c>
+      <c r="C23" s="6">
+        <v>-5003995</v>
+      </c>
+      <c r="D23" s="5">
+        <v>-0.45935266459694607</v>
+      </c>
+      <c r="E23">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DA7DE61-BBCF-4D9C-9297-1085B1D8263C}">
+  <dimension ref="A1:E23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="19.44140625" customWidth="1"/>
+    <col min="3" max="3" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="9">
+        <v>45842</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1">
+        <v>1119.94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E2" s="8">
+        <f>(E1-E13)/E13</f>
+        <v>3.4663069788067456E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
+        <v>4</v>
+      </c>
+      <c r="B4" s="7">
+        <v>677540</v>
+      </c>
+      <c r="C4" s="7">
+        <v>-489280</v>
+      </c>
+      <c r="D4" s="5">
+        <f>C4/B4</f>
+        <v>-0.72214186616288334</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <v>3</v>
+      </c>
+      <c r="B5" s="7">
+        <v>3591550</v>
+      </c>
+      <c r="C5" s="7">
+        <v>-1415000</v>
+      </c>
+      <c r="D5" s="5">
+        <f>C5/B5</f>
+        <v>-0.39398031490582058</v>
+      </c>
+      <c r="E5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>1</v>
+      </c>
+      <c r="B6" s="7">
+        <v>1632240</v>
+      </c>
+      <c r="C6" s="7">
+        <v>-1193370</v>
+      </c>
+      <c r="D6" s="5">
+        <f>C6/B6</f>
+        <v>-0.73112409939714751</v>
+      </c>
+      <c r="E6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="4"/>
+      <c r="B7" s="6">
+        <f>SUM(B4:B6)</f>
+        <v>5901330</v>
+      </c>
+      <c r="C7" s="6">
+        <f>SUM(C4:C6)</f>
+        <v>-3097650</v>
+      </c>
+      <c r="D7" s="5">
+        <f>C7/B7</f>
+        <v>-0.5249070972136789</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B8" s="6"/>
+      <c r="C8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <v>2</v>
+      </c>
+      <c r="B9" s="7">
+        <v>4992250</v>
+      </c>
+      <c r="C9" s="7">
+        <v>-1906345</v>
+      </c>
+      <c r="D9" s="5">
+        <f>C9/B9</f>
+        <v>-0.3818608843707747</v>
+      </c>
+      <c r="E9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B10" s="7"/>
+      <c r="C10" s="7">
+        <v>273102</v>
+      </c>
+      <c r="D10" s="5">
+        <f>C10/B9</f>
+        <v>5.4705193049226303E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="6">
+        <f>B7+B9</f>
+        <v>10893580</v>
+      </c>
+      <c r="C11" s="6">
+        <f>C7+C9</f>
+        <v>-5003995</v>
+      </c>
+      <c r="D11" s="5">
+        <f>C11/B11</f>
+        <v>-0.45935266459694607</v>
+      </c>
+      <c r="E11">
+        <f>E4+E5+E6+E9</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="9">
+        <v>45835</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1082.42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E14" s="8">
+        <v>1.3853113906503154E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
+        <v>4</v>
+      </c>
+      <c r="B16" s="7">
+        <v>862040</v>
+      </c>
+      <c r="C16" s="7">
+        <v>-638120</v>
+      </c>
+      <c r="D16" s="5">
+        <v>-0.740244072200826</v>
+      </c>
+      <c r="E16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="4">
+        <v>3</v>
+      </c>
+      <c r="B17" s="7">
+        <v>3591550</v>
+      </c>
+      <c r="C17" s="7">
+        <v>-1535300</v>
+      </c>
+      <c r="D17" s="5">
+        <v>-0.42747560245576421</v>
+      </c>
+      <c r="E17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="4">
+        <v>1</v>
+      </c>
+      <c r="B18" s="7">
+        <v>1632240</v>
+      </c>
+      <c r="C18" s="7">
+        <v>-1215910</v>
+      </c>
+      <c r="D18" s="5">
+        <v>-0.74493334313581339</v>
+      </c>
+      <c r="E18">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="4"/>
+      <c r="B19" s="6">
+        <v>6085830</v>
+      </c>
+      <c r="C19" s="6">
+        <v>-3389330</v>
+      </c>
+      <c r="D19" s="5">
+        <v>-0.55692157027061218</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B20" s="6"/>
+      <c r="C20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="5"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="4">
+        <v>2</v>
+      </c>
+      <c r="B21" s="7">
+        <v>4992250</v>
+      </c>
+      <c r="C21" s="7">
+        <v>-1945370</v>
+      </c>
+      <c r="D21" s="5">
+        <v>-0.38967800090139715</v>
+      </c>
+      <c r="E21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B22" s="7"/>
+      <c r="C22" s="7">
+        <v>273102</v>
+      </c>
+      <c r="D22" s="5">
+        <v>5.4705193049226303E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="6">
+        <v>11078080</v>
+      </c>
+      <c r="C23" s="6">
+        <v>-5334700</v>
+      </c>
+      <c r="D23" s="5">
+        <v>-0.48155456541205699</v>
+      </c>
+      <c r="E23">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{373050F8-72D0-4C2F-8B80-26C88CE91628}">
+  <dimension ref="A1:E23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="19.44140625" customWidth="1"/>
+    <col min="3" max="3" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="9">
+        <v>45835</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1">
+        <v>1082.42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E2" s="8">
+        <f>(E1-E13)/E13</f>
+        <v>1.3853113906503154E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
+        <v>4</v>
+      </c>
+      <c r="B4" s="7">
+        <v>862040</v>
+      </c>
+      <c r="C4" s="7">
+        <v>-638120</v>
+      </c>
+      <c r="D4" s="5">
+        <f>C4/B4</f>
+        <v>-0.740244072200826</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <v>3</v>
+      </c>
+      <c r="B5" s="7">
+        <v>3591550</v>
+      </c>
+      <c r="C5" s="7">
+        <v>-1535300</v>
+      </c>
+      <c r="D5" s="5">
+        <f>C5/B5</f>
+        <v>-0.42747560245576421</v>
+      </c>
+      <c r="E5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>1</v>
+      </c>
+      <c r="B6" s="7">
+        <v>1632240</v>
+      </c>
+      <c r="C6" s="7">
+        <v>-1215910</v>
+      </c>
+      <c r="D6" s="5">
+        <f>C6/B6</f>
+        <v>-0.74493334313581339</v>
+      </c>
+      <c r="E6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="4"/>
+      <c r="B7" s="6">
+        <f>SUM(B4:B6)</f>
+        <v>6085830</v>
+      </c>
+      <c r="C7" s="6">
+        <f>SUM(C4:C6)</f>
+        <v>-3389330</v>
+      </c>
+      <c r="D7" s="5">
+        <f>C7/B7</f>
+        <v>-0.55692157027061218</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B8" s="6"/>
+      <c r="C8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <v>2</v>
+      </c>
+      <c r="B9" s="7">
+        <v>4992250</v>
+      </c>
+      <c r="C9" s="7">
+        <v>-1945370</v>
+      </c>
+      <c r="D9" s="5">
+        <f>C9/B9</f>
+        <v>-0.38967800090139715</v>
+      </c>
+      <c r="E9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B10" s="7"/>
+      <c r="C10" s="7">
+        <v>273102</v>
+      </c>
+      <c r="D10" s="5">
+        <f>C10/B9</f>
+        <v>5.4705193049226303E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="6">
+        <f>B7+B9</f>
+        <v>11078080</v>
+      </c>
+      <c r="C11" s="6">
+        <f>C7+C9</f>
+        <v>-5334700</v>
+      </c>
+      <c r="D11" s="5">
+        <f>C11/B11</f>
+        <v>-0.48155456541205699</v>
+      </c>
+      <c r="E11">
+        <f>E4+E5+E6+E9</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="9">
+        <v>45828</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1067.6300000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E14" s="8">
+        <v>-4.9051393960986851E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
+        <v>4</v>
+      </c>
+      <c r="B16" s="7">
+        <v>862040</v>
+      </c>
+      <c r="C16" s="7">
+        <v>-661565</v>
+      </c>
+      <c r="D16" s="5">
+        <v>-0.76744118602385036</v>
+      </c>
+      <c r="E16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="4">
+        <v>3</v>
+      </c>
+      <c r="B17" s="7">
+        <v>3591550</v>
+      </c>
+      <c r="C17" s="7">
+        <v>-1538750</v>
+      </c>
+      <c r="D17" s="5">
+        <v>-0.42843619050270776</v>
+      </c>
+      <c r="E17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="4">
+        <v>1</v>
+      </c>
+      <c r="B18" s="7">
+        <v>1632240</v>
+      </c>
+      <c r="C18" s="7">
+        <v>-1237390</v>
+      </c>
+      <c r="D18" s="5">
+        <v>-0.75809317257266084</v>
+      </c>
+      <c r="E18">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="4"/>
+      <c r="B19" s="6">
+        <v>6085830</v>
+      </c>
+      <c r="C19" s="6">
+        <v>-3437705</v>
+      </c>
+      <c r="D19" s="5">
+        <v>-0.56487036279357128</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B20" s="6"/>
+      <c r="C20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="5"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="4">
+        <v>2</v>
+      </c>
+      <c r="B21" s="7">
+        <v>4972600</v>
+      </c>
+      <c r="C21" s="7">
+        <v>-1984215</v>
+      </c>
+      <c r="D21" s="5">
+        <v>-0.39902968266098221</v>
+      </c>
+      <c r="E21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B22" s="7"/>
+      <c r="C22" s="7">
+        <v>271302.75</v>
+      </c>
+      <c r="D22" s="5">
+        <v>5.4559536258697666E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="6">
+        <v>11058430</v>
+      </c>
+      <c r="C23" s="6">
+        <v>-5421920</v>
+      </c>
+      <c r="D23" s="5">
+        <v>-0.49029744728682101</v>
+      </c>
+      <c r="E23">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E153650-B0E8-466D-8F31-78659B503768}">
+  <dimension ref="A1:E23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="19.44140625" customWidth="1"/>
+    <col min="3" max="3" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="9">
+        <v>45828</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1">
+        <v>1067.6300000000001</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E2" s="8">
+        <f>(E1-E13)/E13</f>
+        <v>-4.9051393960986851E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
+        <v>4</v>
+      </c>
+      <c r="B4" s="7">
+        <v>862040</v>
+      </c>
+      <c r="C4" s="7">
+        <v>-661565</v>
+      </c>
+      <c r="D4" s="5">
+        <f>C4/B4</f>
+        <v>-0.76744118602385036</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <v>3</v>
+      </c>
+      <c r="B5" s="7">
+        <v>3591550</v>
+      </c>
+      <c r="C5" s="7">
+        <v>-1538750</v>
+      </c>
+      <c r="D5" s="5">
+        <f>C5/B5</f>
+        <v>-0.42843619050270776</v>
+      </c>
+      <c r="E5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>1</v>
+      </c>
+      <c r="B6" s="7">
+        <v>1632240</v>
+      </c>
+      <c r="C6" s="7">
+        <v>-1237390</v>
+      </c>
+      <c r="D6" s="5">
+        <f>C6/B6</f>
+        <v>-0.75809317257266084</v>
+      </c>
+      <c r="E6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="4"/>
+      <c r="B7" s="6">
+        <f>SUM(B4:B6)</f>
+        <v>6085830</v>
+      </c>
+      <c r="C7" s="6">
+        <f>SUM(C4:C6)</f>
+        <v>-3437705</v>
+      </c>
+      <c r="D7" s="5">
+        <f>C7/B7</f>
+        <v>-0.56487036279357128</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B8" s="6"/>
+      <c r="C8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <v>2</v>
+      </c>
+      <c r="B9" s="7">
+        <v>4972600</v>
+      </c>
+      <c r="C9" s="7">
+        <v>-1984215</v>
+      </c>
+      <c r="D9" s="5">
+        <f>C9/B9</f>
+        <v>-0.39902968266098221</v>
+      </c>
+      <c r="E9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B10" s="7"/>
+      <c r="C10" s="7">
+        <v>271302.75</v>
+      </c>
+      <c r="D10" s="5">
+        <f>C10/B9</f>
+        <v>5.4559536258697666E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="6">
+        <f>B7+B9</f>
+        <v>11058430</v>
+      </c>
+      <c r="C11" s="6">
+        <f>C7+C9</f>
+        <v>-5421920</v>
+      </c>
+      <c r="D11" s="5">
+        <f>C11/B11</f>
+        <v>-0.49029744728682101</v>
+      </c>
+      <c r="E11">
+        <f>E4+E5+E6+E9</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="9">
+        <v>45821</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1122.7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E14" s="8">
+        <v>-2.3042517273186111E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
+        <v>4</v>
+      </c>
+      <c r="B16" s="7">
+        <v>1063040</v>
+      </c>
+      <c r="C16" s="7">
+        <v>-805890</v>
+      </c>
+      <c r="D16" s="5" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="E16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="4">
+        <v>3</v>
+      </c>
+      <c r="B17" s="7">
+        <v>3591550</v>
+      </c>
+      <c r="C17" s="7">
+        <v>-1423200</v>
+      </c>
+      <c r="D17" s="5">
+        <v>-0.39626345171304866</v>
+      </c>
+      <c r="E17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="4">
+        <v>1</v>
+      </c>
+      <c r="B18" s="7">
+        <v>1632240</v>
+      </c>
+      <c r="C18" s="7">
+        <v>-1201240</v>
+      </c>
+      <c r="D18" s="5">
+        <v>-0.73594569426064793</v>
+      </c>
+      <c r="E18">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="4"/>
+      <c r="B19" s="6">
+        <v>6286830</v>
+      </c>
+      <c r="C19" s="6">
+        <v>-3430330</v>
+      </c>
+      <c r="D19" s="5">
+        <v>-0.54563746753133135</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B20" s="6"/>
+      <c r="C20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="5"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="4">
+        <v>2</v>
+      </c>
+      <c r="B21" s="7">
+        <v>4971598</v>
+      </c>
+      <c r="C21" s="7">
+        <v>-1870168</v>
+      </c>
+      <c r="D21" s="5">
+        <v>-0.37617039833067756</v>
+      </c>
+      <c r="E21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B22" s="7"/>
+      <c r="C22" s="7">
+        <v>271302.75</v>
+      </c>
+      <c r="D22" s="5">
+        <v>5.4570532452543424E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="6">
+        <v>11258428</v>
+      </c>
+      <c r="C23" s="6">
+        <v>-5300498</v>
+      </c>
+      <c r="D23" s="5">
+        <v>-0.47080267333947512</v>
+      </c>
+      <c r="E23">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{552CD9C1-2030-4328-9D69-E157E8DC4B84}">
+  <dimension ref="A1:E23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="19.44140625" customWidth="1"/>
+    <col min="3" max="3" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="9">
+        <v>45821</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1">
+        <v>1122.7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E2" s="8">
+        <f>(E1-E13)/E13</f>
+        <v>-2.3042517273186111E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
+        <v>4</v>
+      </c>
+      <c r="B4" s="7">
+        <v>1063040</v>
+      </c>
+      <c r="C4" s="7">
+        <v>-805890</v>
+      </c>
+      <c r="D4" s="5" t="e" cm="1">
+        <f t="array" ref="D4">B61632240=C4/B4</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <v>3</v>
+      </c>
+      <c r="B5" s="7">
+        <v>3591550</v>
+      </c>
+      <c r="C5" s="7">
+        <v>-1423200</v>
+      </c>
+      <c r="D5" s="5">
+        <f>C5/B5</f>
+        <v>-0.39626345171304866</v>
+      </c>
+      <c r="E5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>1</v>
+      </c>
+      <c r="B6" s="7">
+        <v>1632240</v>
+      </c>
+      <c r="C6" s="7">
+        <v>-1201240</v>
+      </c>
+      <c r="D6" s="5">
+        <f>C6/B6</f>
+        <v>-0.73594569426064793</v>
+      </c>
+      <c r="E6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="4"/>
+      <c r="B7" s="6">
+        <f>SUM(B4:B6)</f>
+        <v>6286830</v>
+      </c>
+      <c r="C7" s="6">
+        <f>SUM(C4:C6)</f>
+        <v>-3430330</v>
+      </c>
+      <c r="D7" s="5">
+        <f>C7/B7</f>
+        <v>-0.54563746753133135</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B8" s="6"/>
+      <c r="C8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <v>2</v>
+      </c>
+      <c r="B9" s="7">
+        <v>4971598</v>
+      </c>
+      <c r="C9" s="7">
+        <v>-1870168</v>
+      </c>
+      <c r="D9" s="5">
+        <f>C9/B9</f>
+        <v>-0.37617039833067756</v>
+      </c>
+      <c r="E9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B10" s="7"/>
+      <c r="C10" s="7">
+        <v>271302.75</v>
+      </c>
+      <c r="D10" s="5">
+        <f>C10/B9</f>
+        <v>5.4570532452543424E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="6">
+        <f>B7+B9</f>
+        <v>11258428</v>
+      </c>
+      <c r="C11" s="6">
+        <f>C7+C9</f>
+        <v>-5300498</v>
+      </c>
+      <c r="D11" s="5">
+        <f>C11/B11</f>
+        <v>-0.47080267333947512</v>
+      </c>
+      <c r="E11">
+        <f>E4+E5+E6+E9</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="9">
+        <v>45807</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1149.18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E14" s="8">
+        <v>-2.3105171886157162E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
+        <v>4</v>
+      </c>
+      <c r="B16" s="7">
+        <v>1841230</v>
+      </c>
+      <c r="C16" s="7">
+        <v>-683180</v>
+      </c>
+      <c r="D16" s="5">
+        <v>-0.37104544244879784</v>
+      </c>
+      <c r="E16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="4">
+        <v>3</v>
+      </c>
+      <c r="B17" s="7">
+        <v>2409900</v>
+      </c>
+      <c r="C17" s="7">
+        <v>-1440450</v>
+      </c>
+      <c r="D17" s="5">
+        <v>-0.59772189717415658</v>
+      </c>
+      <c r="E17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="4">
+        <v>1</v>
+      </c>
+      <c r="B18" s="7">
+        <v>1977200</v>
+      </c>
+      <c r="C18" s="7">
+        <v>-1316320</v>
+      </c>
+      <c r="D18" s="5">
+        <v>-0.66574954481084359</v>
+      </c>
+      <c r="E18">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="4"/>
+      <c r="B19" s="6">
+        <v>6228330</v>
+      </c>
+      <c r="C19" s="6">
+        <v>-3439950</v>
+      </c>
+      <c r="D19" s="5">
+        <v>-0.55230695868716018</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B20" s="6"/>
+      <c r="C20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="5"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="4">
+        <v>2</v>
+      </c>
+      <c r="B21" s="7">
+        <v>4971598</v>
+      </c>
+      <c r="C21" s="7">
+        <v>-1743778</v>
+      </c>
+      <c r="D21" s="5">
+        <v>-0.35074798887601127</v>
+      </c>
+      <c r="E21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B22" s="7"/>
+      <c r="C22" s="7">
+        <v>271302.75</v>
+      </c>
+      <c r="D22" s="5">
+        <v>5.4570532452543424E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="6">
+        <v>11199928</v>
+      </c>
+      <c r="C23" s="6">
+        <v>-5183728</v>
+      </c>
+      <c r="D23" s="5">
+        <v>-0.46283583251606619</v>
+      </c>
+      <c r="E23">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DC193AA-68B5-4D75-8672-E97855DF0173}">
+  <dimension ref="A1:E23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="19.44140625" customWidth="1"/>
+    <col min="3" max="3" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="9">
+        <v>45807</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1">
+        <v>1149.18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E2" s="8">
+        <f>(E1-E13)/E13</f>
+        <v>-2.3105171886157162E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
+        <v>4</v>
+      </c>
+      <c r="B4" s="7">
+        <v>1841230</v>
+      </c>
+      <c r="C4" s="7">
+        <v>-683180</v>
+      </c>
+      <c r="D4" s="5">
+        <f>C4/B4</f>
+        <v>-0.37104544244879784</v>
+      </c>
+      <c r="E4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <v>3</v>
+      </c>
+      <c r="B5" s="7">
+        <v>2409900</v>
+      </c>
+      <c r="C5" s="7">
+        <v>-1440450</v>
+      </c>
+      <c r="D5" s="5">
+        <f>C5/B5</f>
+        <v>-0.59772189717415658</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>1</v>
+      </c>
+      <c r="B6" s="7">
+        <v>1977200</v>
+      </c>
+      <c r="C6" s="7">
+        <v>-1316320</v>
+      </c>
+      <c r="D6" s="5">
+        <f>C6/B6</f>
+        <v>-0.66574954481084359</v>
+      </c>
+      <c r="E6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="4"/>
+      <c r="B7" s="6">
+        <f>SUM(B4:B6)</f>
+        <v>6228330</v>
+      </c>
+      <c r="C7" s="6">
+        <f>SUM(C4:C6)</f>
+        <v>-3439950</v>
+      </c>
+      <c r="D7" s="5">
+        <f>C7/B7</f>
+        <v>-0.55230695868716018</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B8" s="6"/>
+      <c r="C8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <v>2</v>
+      </c>
+      <c r="B9" s="7">
+        <v>4971598</v>
+      </c>
+      <c r="C9" s="7">
+        <v>-1743778</v>
+      </c>
+      <c r="D9" s="5">
+        <f>C9/B9</f>
+        <v>-0.35074798887601127</v>
+      </c>
+      <c r="E9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B10" s="7"/>
+      <c r="C10" s="7">
+        <v>271302.75</v>
+      </c>
+      <c r="D10" s="5">
+        <f>C10/B9</f>
+        <v>5.4570532452543424E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="6">
+        <f>B7+B9</f>
+        <v>11199928</v>
+      </c>
+      <c r="C11" s="6">
+        <f>C7+C9</f>
+        <v>-5183728</v>
+      </c>
+      <c r="D11" s="5">
+        <f>C11/B11</f>
+        <v>-0.46283583251606619</v>
+      </c>
+      <c r="E11">
+        <f>E4+E5+E6+E9</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="9">
+        <v>45800</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1176.3599999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E14" s="8">
+        <v>-1.6232218570460942E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
+        <v>4</v>
+      </c>
+      <c r="B16" s="7">
+        <v>1841230</v>
+      </c>
+      <c r="C16" s="7">
+        <v>-662540</v>
+      </c>
+      <c r="D16" s="5">
+        <v>-0.35983554471738999</v>
+      </c>
+      <c r="E16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="4">
+        <v>3</v>
+      </c>
+      <c r="B17" s="7">
+        <v>2409900</v>
+      </c>
+      <c r="C17" s="7">
+        <v>-1468730</v>
+      </c>
+      <c r="D17" s="5">
+        <v>-0.6094568239346031</v>
+      </c>
+      <c r="E17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="4">
+        <v>1</v>
+      </c>
+      <c r="B18" s="7">
+        <v>1977200</v>
+      </c>
+      <c r="C18" s="7">
+        <v>-1316200</v>
+      </c>
+      <c r="D18" s="5">
+        <v>-0.66568885292332591</v>
+      </c>
+      <c r="E18">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="4"/>
+      <c r="B19" s="6">
+        <v>6228330</v>
+      </c>
+      <c r="C19" s="6">
+        <v>-3447470</v>
+      </c>
+      <c r="D19" s="5">
+        <v>-0.55351434493676477</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B20" s="6"/>
+      <c r="C20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="5"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="4">
+        <v>2</v>
+      </c>
+      <c r="B21" s="7">
+        <v>4971598</v>
+      </c>
+      <c r="C21" s="7">
+        <v>-1731098</v>
+      </c>
+      <c r="D21" s="5">
+        <v>-0.34819750108516417</v>
+      </c>
+      <c r="E21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B22" s="7"/>
+      <c r="C22" s="7">
+        <v>271302.75</v>
+      </c>
+      <c r="D22" s="5">
+        <v>5.4570532452543424E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="6">
+        <v>11199928</v>
+      </c>
+      <c r="C23" s="6">
+        <v>-5178568</v>
+      </c>
+      <c r="D23" s="5">
+        <v>-0.46237511526859815</v>
+      </c>
+      <c r="E23">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30DD628C-CC42-43B0-A721-1E91130D13A5}">
+  <dimension ref="A1:E23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="19.44140625" customWidth="1"/>
+    <col min="3" max="3" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="9">
+        <v>45800</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1">
+        <v>1176.3599999999999</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E2" s="8">
+        <f>(E1-E13)/E13</f>
+        <v>-1.6232218570460942E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
+        <v>4</v>
+      </c>
+      <c r="B4" s="7">
+        <v>1841230</v>
+      </c>
+      <c r="C4" s="7">
+        <v>-662540</v>
+      </c>
+      <c r="D4" s="5">
+        <f>C4/B4</f>
+        <v>-0.35983554471738999</v>
+      </c>
+      <c r="E4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <v>3</v>
+      </c>
+      <c r="B5" s="7">
+        <v>2409900</v>
+      </c>
+      <c r="C5" s="7">
+        <v>-1468730</v>
+      </c>
+      <c r="D5" s="5">
+        <f>C5/B5</f>
+        <v>-0.6094568239346031</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>1</v>
+      </c>
+      <c r="B6" s="7">
+        <v>1977200</v>
+      </c>
+      <c r="C6" s="7">
+        <v>-1316200</v>
+      </c>
+      <c r="D6" s="5">
+        <f>C6/B6</f>
+        <v>-0.66568885292332591</v>
+      </c>
+      <c r="E6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="4"/>
+      <c r="B7" s="6">
+        <f>SUM(B4:B6)</f>
+        <v>6228330</v>
+      </c>
+      <c r="C7" s="6">
+        <f>SUM(C4:C6)</f>
+        <v>-3447470</v>
+      </c>
+      <c r="D7" s="5">
+        <f>C7/B7</f>
+        <v>-0.55351434493676477</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B8" s="6"/>
+      <c r="C8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <v>2</v>
+      </c>
+      <c r="B9" s="7">
+        <v>4971598</v>
+      </c>
+      <c r="C9" s="7">
+        <v>-1731098</v>
+      </c>
+      <c r="D9" s="5">
+        <f>C9/B9</f>
+        <v>-0.34819750108516417</v>
+      </c>
+      <c r="E9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B10" s="7"/>
+      <c r="C10" s="7">
+        <v>271302.75</v>
+      </c>
+      <c r="D10" s="5">
+        <f>C10/B9</f>
+        <v>5.4570532452543424E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="6">
+        <f>B7+B9</f>
+        <v>11199928</v>
+      </c>
+      <c r="C11" s="6">
+        <f>C7+C9</f>
+        <v>-5178568</v>
+      </c>
+      <c r="D11" s="5">
+        <f>C11/B11</f>
+        <v>-0.46237511526859815</v>
+      </c>
+      <c r="E11">
+        <f>E4+E5+E6+E9</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="9">
+        <v>45793</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1195.77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E14" s="8">
+        <v>-1.2527458007828689E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
+        <v>4</v>
+      </c>
+      <c r="B16" s="7">
+        <v>1841230</v>
+      </c>
+      <c r="C16" s="7">
+        <v>-679870</v>
+      </c>
+      <c r="D16" s="5">
+        <v>-0.36924773113625131</v>
+      </c>
+      <c r="E16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="4">
+        <v>3</v>
+      </c>
+      <c r="B17" s="7">
+        <v>2380500</v>
+      </c>
+      <c r="C17" s="7">
+        <v>-1443820</v>
+      </c>
+      <c r="D17" s="5">
+        <v>-0.60651963873135895</v>
+      </c>
+      <c r="E17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="4">
+        <v>1</v>
+      </c>
+      <c r="B18" s="7">
+        <v>1977200</v>
+      </c>
+      <c r="C18" s="7">
+        <v>-1312520</v>
+      </c>
+      <c r="D18" s="5">
+        <v>-0.66382763503944975</v>
+      </c>
+      <c r="E18">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="4"/>
+      <c r="B19" s="6">
+        <v>6198930</v>
+      </c>
+      <c r="C19" s="6">
+        <v>-3436210</v>
+      </c>
+      <c r="D19" s="5">
+        <v>-0.55432308479043968</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B20" s="6"/>
+      <c r="C20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="5"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="4">
+        <v>2</v>
+      </c>
+      <c r="B21" s="7">
+        <v>4971598</v>
+      </c>
+      <c r="C21" s="7">
+        <v>-1727818</v>
+      </c>
+      <c r="D21" s="5">
+        <v>-0.34753775345472421</v>
+      </c>
+      <c r="E21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B22" s="7"/>
+      <c r="C22" s="7">
+        <v>271302.75</v>
+      </c>
+      <c r="D22" s="5">
+        <v>5.4570532452543424E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="6">
+        <v>11170528</v>
+      </c>
+      <c r="C23" s="6">
+        <v>-5164028</v>
+      </c>
+      <c r="D23" s="5">
+        <v>-0.46229041277189403</v>
+      </c>
+      <c r="E23">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D397C17-7D11-44D9-80F7-712E06707A25}">
+  <dimension ref="A1:E23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="19.44140625" customWidth="1"/>
+    <col min="3" max="3" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="9">
+        <v>45793</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1">
+        <v>1195.77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E2" s="8">
+        <f>(E1-E13)/E13</f>
+        <v>-1.2527458007828689E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
+        <v>4</v>
+      </c>
+      <c r="B4" s="7">
+        <v>1841230</v>
+      </c>
+      <c r="C4" s="7">
+        <v>-679870</v>
+      </c>
+      <c r="D4" s="5">
+        <f>C4/B4</f>
+        <v>-0.36924773113625131</v>
+      </c>
+      <c r="E4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <v>3</v>
+      </c>
+      <c r="B5" s="7">
+        <v>2380500</v>
+      </c>
+      <c r="C5" s="7">
+        <v>-1443820</v>
+      </c>
+      <c r="D5" s="5">
+        <f>C5/B5</f>
+        <v>-0.60651963873135895</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>1</v>
+      </c>
+      <c r="B6" s="7">
+        <v>1977200</v>
+      </c>
+      <c r="C6" s="7">
+        <v>-1312520</v>
+      </c>
+      <c r="D6" s="5">
+        <f>C6/B6</f>
+        <v>-0.66382763503944975</v>
+      </c>
+      <c r="E6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="4"/>
+      <c r="B7" s="6">
+        <f>SUM(B4:B6)</f>
+        <v>6198930</v>
+      </c>
+      <c r="C7" s="6">
+        <f>SUM(C4:C6)</f>
+        <v>-3436210</v>
+      </c>
+      <c r="D7" s="5">
+        <f>C7/B7</f>
+        <v>-0.55432308479043968</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B8" s="6"/>
+      <c r="C8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <v>2</v>
+      </c>
+      <c r="B9" s="7">
+        <v>4971598</v>
+      </c>
+      <c r="C9" s="7">
+        <v>-1727818</v>
+      </c>
+      <c r="D9" s="5">
+        <f>C9/B9</f>
+        <v>-0.34753775345472421</v>
+      </c>
+      <c r="E9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B10" s="7"/>
+      <c r="C10" s="7">
+        <v>271302.75</v>
+      </c>
+      <c r="D10" s="5">
+        <f>C10/B9</f>
+        <v>5.4570532452543424E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="6">
+        <f>B7+B9</f>
+        <v>11170528</v>
+      </c>
+      <c r="C11" s="6">
+        <f>C7+C9</f>
+        <v>-5164028</v>
+      </c>
+      <c r="D11" s="5">
+        <f>C11/B11</f>
+        <v>-0.46229041277189403</v>
+      </c>
+      <c r="E11">
+        <f>E4+E5+E6+E9</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="9">
+        <v>45786</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1210.94</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E14" s="8">
+        <v>9.975145540376016E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
+        <v>4</v>
+      </c>
+      <c r="B16" s="7">
+        <v>1841230</v>
+      </c>
+      <c r="C16" s="7">
+        <v>-710950</v>
+      </c>
+      <c r="D16" s="5">
+        <v>-0.38612775155738283</v>
+      </c>
+      <c r="E16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="4">
+        <v>3</v>
+      </c>
+      <c r="B17" s="7">
+        <v>2380500</v>
+      </c>
+      <c r="C17" s="7">
+        <v>-1391200</v>
+      </c>
+      <c r="D17" s="5">
+        <v>-0.58441503885738288</v>
+      </c>
+      <c r="E17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="4">
+        <v>1</v>
+      </c>
+      <c r="B18" s="7">
+        <v>2091200</v>
+      </c>
+      <c r="C18" s="7">
+        <v>-1352900</v>
+      </c>
+      <c r="D18" s="5">
+        <v>-0.64694912012241779</v>
+      </c>
+      <c r="E18">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="4"/>
+      <c r="B19" s="6">
+        <v>6312930</v>
+      </c>
+      <c r="C19" s="6">
+        <v>-3455050</v>
+      </c>
+      <c r="D19" s="5">
+        <v>-0.5472973722186053</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B20" s="6"/>
+      <c r="C20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="5"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="4">
+        <v>2</v>
+      </c>
+      <c r="B21" s="7">
+        <v>4924600</v>
+      </c>
+      <c r="C21" s="7">
+        <v>-1735475</v>
+      </c>
+      <c r="D21" s="5">
+        <v>-0.35240933273768427</v>
+      </c>
+      <c r="E21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B22" s="7"/>
+      <c r="C22" s="7">
+        <v>265724.25</v>
+      </c>
+      <c r="D22" s="5">
+        <v>5.3958544856435038E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="6">
+        <v>11237530</v>
+      </c>
+      <c r="C23" s="6">
+        <v>-5190525</v>
+      </c>
+      <c r="D23" s="5">
+        <v>-0.46189198160093897</v>
+      </c>
+      <c r="E23">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Excel/04-Amt-by-period.xlsx
+++ b/Excel/04-Amt-by-period.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c8862359375ebd62/A5/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="183" documentId="11_4407D90E547F242EEA22E4B75BC69E7FC8C566A2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DC385A8A-6553-4769-9BE1-7A78E7FCBA58}"/>
+  <xr:revisionPtr revIDLastSave="198" documentId="11_4407D90E547F242EEA22E4B75BC69E7FC8C566A2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{62E47889-B008-4769-A680-C08E80E92869}"/>
   <bookViews>
-    <workbookView xWindow="14244" yWindow="1176" windowWidth="8904" windowHeight="11628" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9708" yWindow="744" windowWidth="13392" windowHeight="9948" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="250725" sheetId="15" r:id="rId1"/>
+    <sheet name="250808" sheetId="15" r:id="rId1"/>
     <sheet name="250718" sheetId="14" r:id="rId2"/>
     <sheet name="250704" sheetId="13" r:id="rId3"/>
     <sheet name="250627" sheetId="12" r:id="rId4"/>
@@ -491,7 +491,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -506,19 +506,19 @@
         <v>0</v>
       </c>
       <c r="C1" s="9">
-        <v>45863</v>
+        <v>45877</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
       </c>
       <c r="E1">
-        <v>1217.1500000000001</v>
+        <v>1259.07</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E2" s="8">
         <f>(E1-E13)/E13</f>
-        <v>8.7602977009399834E-3</v>
+        <v>3.444111243478605E-2</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -543,17 +543,17 @@
         <v>4</v>
       </c>
       <c r="B4" s="7">
-        <v>416540</v>
+        <v>300140</v>
       </c>
       <c r="C4" s="7">
-        <v>-284400</v>
+        <v>-210840</v>
       </c>
       <c r="D4" s="5">
         <f>C4/B4</f>
-        <v>-0.68276756133864691</v>
+        <v>-0.70247217964949693</v>
       </c>
       <c r="E4">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -561,14 +561,14 @@
         <v>3</v>
       </c>
       <c r="B5" s="7">
-        <v>3591550</v>
+        <v>3504400</v>
       </c>
       <c r="C5" s="7">
-        <v>-1326800</v>
+        <v>-1225490</v>
       </c>
       <c r="D5" s="5">
         <f>C5/B5</f>
-        <v>-0.36942267266222106</v>
+        <v>-0.34970037666932996</v>
       </c>
       <c r="E5">
         <v>7</v>
@@ -579,14 +579,14 @@
         <v>1</v>
       </c>
       <c r="B6" s="7">
-        <v>1632240</v>
+        <v>1543740</v>
       </c>
       <c r="C6" s="7">
-        <v>-1152920</v>
+        <v>-1034500</v>
       </c>
       <c r="D6" s="5">
         <f>C6/B6</f>
-        <v>-0.7063422045777582</v>
+        <v>-0.67012579838573849</v>
       </c>
       <c r="E6">
         <v>7</v>
@@ -596,15 +596,15 @@
       <c r="A7" s="4"/>
       <c r="B7" s="6">
         <f>SUM(B4:B6)</f>
-        <v>5640330</v>
+        <v>5348280</v>
       </c>
       <c r="C7" s="6">
         <f>SUM(C4:C6)</f>
-        <v>-2764120</v>
+        <v>-2470830</v>
       </c>
       <c r="D7" s="5">
         <f>C7/B7</f>
-        <v>-0.49006352465192637</v>
+        <v>-0.46198590948865803</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -619,17 +619,17 @@
         <v>2</v>
       </c>
       <c r="B9" s="7">
-        <v>5036250</v>
+        <v>5029350</v>
       </c>
       <c r="C9" s="7">
-        <v>-1802045</v>
+        <v>-1731790</v>
       </c>
       <c r="D9" s="5">
         <f>C9/B9</f>
-        <v>-0.35781484239265327</v>
+        <v>-0.34433674331673081</v>
       </c>
       <c r="E9">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -639,7 +639,7 @@
       </c>
       <c r="D10" s="5">
         <f>C10/B9</f>
-        <v>5.4935716058575328E-2</v>
+        <v>5.5011084931452375E-2</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -648,15 +648,15 @@
       </c>
       <c r="B11" s="6">
         <f>B7+B9</f>
-        <v>10676580</v>
+        <v>10377630</v>
       </c>
       <c r="C11" s="6">
         <f>C7+C9</f>
-        <v>-4566165</v>
+        <v>-4202620</v>
       </c>
       <c r="D11" s="5">
         <f>C11/B11</f>
-        <v>-0.42768049319164003</v>
+        <v>-0.40496914998896666</v>
       </c>
       <c r="E11">
         <f>E4+E5+E6+E9</f>
@@ -668,18 +668,18 @@
         <v>0</v>
       </c>
       <c r="C13" s="9">
-        <v>45856</v>
+        <v>45863</v>
       </c>
       <c r="D13" t="s">
         <v>1</v>
       </c>
       <c r="E13">
-        <v>1206.58</v>
+        <v>1217.1500000000001</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E14" s="8">
-        <v>7.7361287211814803E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -704,13 +704,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="7">
-        <v>503540</v>
+        <v>416540</v>
       </c>
       <c r="C16" s="7">
-        <v>-350840</v>
+        <v>-284400</v>
       </c>
       <c r="D16" s="5">
-        <v>-0.69674703102037572</v>
+        <v>-0.68276756133864691</v>
       </c>
       <c r="E16">
         <v>4</v>
@@ -724,10 +724,10 @@
         <v>3591550</v>
       </c>
       <c r="C17" s="7">
-        <v>-1314900</v>
+        <v>-1326800</v>
       </c>
       <c r="D17" s="5">
-        <v>-0.36610933997856077</v>
+        <v>-0.36942267266222106</v>
       </c>
       <c r="E17">
         <v>7</v>
@@ -741,10 +741,10 @@
         <v>1632240</v>
       </c>
       <c r="C18" s="7">
-        <v>-1153940</v>
+        <v>-1152920</v>
       </c>
       <c r="D18" s="5">
-        <v>-0.70696711267950796</v>
+        <v>-0.7063422045777582</v>
       </c>
       <c r="E18">
         <v>7</v>
@@ -753,13 +753,13 @@
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="6">
-        <v>5727330</v>
+        <v>5640330</v>
       </c>
       <c r="C19" s="6">
-        <v>-2819680</v>
+        <v>-2764120</v>
       </c>
       <c r="D19" s="5">
-        <v>-0.49232015616351771</v>
+        <v>-0.49006352465192637</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -777,10 +777,10 @@
         <v>5036250</v>
       </c>
       <c r="C21" s="7">
-        <v>-1834700</v>
+        <v>-1802045</v>
       </c>
       <c r="D21" s="5">
-        <v>-0.36429883345743358</v>
+        <v>-0.35781484239265327</v>
       </c>
       <c r="E21">
         <v>10</v>
@@ -800,13 +800,13 @@
         <v>8</v>
       </c>
       <c r="B23" s="6">
-        <v>10763580</v>
+        <v>10676580</v>
       </c>
       <c r="C23" s="6">
-        <v>-4654380</v>
+        <v>-4566165</v>
       </c>
       <c r="D23" s="5">
-        <v>-0.43241932516876358</v>
+        <v>-0.42768049319164003</v>
       </c>
       <c r="E23">
         <v>28</v>

--- a/Excel/04-Amt-by-period.xlsx
+++ b/Excel/04-Amt-by-period.xlsx
@@ -8,26 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c8862359375ebd62/A5/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="198" documentId="11_4407D90E547F242EEA22E4B75BC69E7FC8C566A2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{62E47889-B008-4769-A680-C08E80E92869}"/>
+  <xr:revisionPtr revIDLastSave="210" documentId="11_4407D90E547F242EEA22E4B75BC69E7FC8C566A2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E12F2A62-AE9F-4DC0-B6A9-3790F751623D}"/>
   <bookViews>
-    <workbookView xWindow="9708" yWindow="744" windowWidth="13392" windowHeight="9948" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13428" yWindow="1320" windowWidth="8820" windowHeight="9948" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="250808" sheetId="15" r:id="rId1"/>
-    <sheet name="250718" sheetId="14" r:id="rId2"/>
-    <sheet name="250704" sheetId="13" r:id="rId3"/>
-    <sheet name="250627" sheetId="12" r:id="rId4"/>
-    <sheet name="250620" sheetId="11" r:id="rId5"/>
-    <sheet name="250613" sheetId="10" r:id="rId6"/>
-    <sheet name="250530" sheetId="9" r:id="rId7"/>
-    <sheet name="250523" sheetId="8" r:id="rId8"/>
-    <sheet name="250516" sheetId="7" r:id="rId9"/>
-    <sheet name="250509" sheetId="6" r:id="rId10"/>
-    <sheet name="250502" sheetId="5" r:id="rId11"/>
-    <sheet name="250411" sheetId="4" r:id="rId12"/>
-    <sheet name="250221" sheetId="3" r:id="rId13"/>
-    <sheet name="250131" sheetId="2" r:id="rId14"/>
-    <sheet name="1230" sheetId="1" r:id="rId15"/>
+    <sheet name="250815" sheetId="16" r:id="rId1"/>
+    <sheet name="250808" sheetId="15" r:id="rId2"/>
+    <sheet name="250718" sheetId="14" r:id="rId3"/>
+    <sheet name="250704" sheetId="13" r:id="rId4"/>
+    <sheet name="250627" sheetId="12" r:id="rId5"/>
+    <sheet name="250620" sheetId="11" r:id="rId6"/>
+    <sheet name="250613" sheetId="10" r:id="rId7"/>
+    <sheet name="250530" sheetId="9" r:id="rId8"/>
+    <sheet name="250523" sheetId="8" r:id="rId9"/>
+    <sheet name="250516" sheetId="7" r:id="rId10"/>
+    <sheet name="250509" sheetId="6" r:id="rId11"/>
+    <sheet name="250502" sheetId="5" r:id="rId12"/>
+    <sheet name="250411" sheetId="4" r:id="rId13"/>
+    <sheet name="250221" sheetId="3" r:id="rId14"/>
+    <sheet name="250131" sheetId="2" r:id="rId15"/>
+    <sheet name="1230" sheetId="1" r:id="rId16"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -69,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="9">
   <si>
     <t>As end of</t>
   </si>
@@ -487,11 +488,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F32CB65-9456-4E75-B848-3BAB2F7365C7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E6F400C-8AD0-4837-BB77-C3C717B678B6}">
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -506,19 +507,19 @@
         <v>0</v>
       </c>
       <c r="C1" s="9">
-        <v>45877</v>
+        <v>45884</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
       </c>
       <c r="E1">
-        <v>1259.07</v>
+        <v>1259.42</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E2" s="8">
         <f>(E1-E13)/E13</f>
-        <v>3.444111243478605E-2</v>
+        <v>2.7798295567374047E-4</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -538,7 +539,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>4</v>
       </c>
@@ -546,11 +547,11 @@
         <v>300140</v>
       </c>
       <c r="C4" s="7">
-        <v>-210840</v>
+        <v>-211740</v>
       </c>
       <c r="D4" s="5">
         <f>C4/B4</f>
-        <v>-0.70247217964949693</v>
+        <v>-0.70547078030252552</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -564,11 +565,11 @@
         <v>3504400</v>
       </c>
       <c r="C5" s="7">
-        <v>-1225490</v>
+        <v>-1336730</v>
       </c>
       <c r="D5" s="5">
         <f>C5/B5</f>
-        <v>-0.34970037666932996</v>
+        <v>-0.38144332838717043</v>
       </c>
       <c r="E5">
         <v>7</v>
@@ -582,11 +583,11 @@
         <v>1543740</v>
       </c>
       <c r="C6" s="7">
-        <v>-1034500</v>
+        <v>-1054720</v>
       </c>
       <c r="D6" s="5">
         <f>C6/B6</f>
-        <v>-0.67012579838573849</v>
+        <v>-0.68322385893997695</v>
       </c>
       <c r="E6">
         <v>7</v>
@@ -600,11 +601,11 @@
       </c>
       <c r="C7" s="6">
         <f>SUM(C4:C6)</f>
-        <v>-2470830</v>
+        <v>-2603190</v>
       </c>
       <c r="D7" s="5">
         <f>C7/B7</f>
-        <v>-0.46198590948865803</v>
+        <v>-0.4867340528169804</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -619,14 +620,14 @@
         <v>2</v>
       </c>
       <c r="B9" s="7">
-        <v>5029350</v>
+        <v>5138100</v>
       </c>
       <c r="C9" s="7">
-        <v>-1731790</v>
+        <v>-1748790</v>
       </c>
       <c r="D9" s="5">
         <f>C9/B9</f>
-        <v>-0.34433674331673081</v>
+        <v>-0.34035733053074091</v>
       </c>
       <c r="E9">
         <v>11</v>
@@ -635,11 +636,11 @@
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B10" s="7"/>
       <c r="C10" s="7">
-        <v>276670</v>
+        <v>299817.7</v>
       </c>
       <c r="D10" s="5">
         <f>C10/B9</f>
-        <v>5.5011084931452375E-2</v>
+        <v>5.8351861583075461E-2</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -648,15 +649,15 @@
       </c>
       <c r="B11" s="6">
         <f>B7+B9</f>
-        <v>10377630</v>
+        <v>10486380</v>
       </c>
       <c r="C11" s="6">
         <f>C7+C9</f>
-        <v>-4202620</v>
+        <v>-4351980</v>
       </c>
       <c r="D11" s="5">
         <f>C11/B11</f>
-        <v>-0.40496914998896666</v>
+        <v>-0.41501261636522802</v>
       </c>
       <c r="E11">
         <f>E4+E5+E6+E9</f>
@@ -668,18 +669,18 @@
         <v>0</v>
       </c>
       <c r="C13" s="9">
-        <v>45863</v>
+        <v>45877</v>
       </c>
       <c r="D13" t="s">
         <v>1</v>
       </c>
       <c r="E13">
-        <v>1217.1500000000001</v>
+        <v>1259.07</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E14" s="8">
-        <v>0</v>
+        <v>3.444111243478605E-2</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -704,16 +705,16 @@
         <v>4</v>
       </c>
       <c r="B16" s="7">
-        <v>416540</v>
+        <v>300140</v>
       </c>
       <c r="C16" s="7">
-        <v>-284400</v>
+        <v>-210840</v>
       </c>
       <c r="D16" s="5">
-        <v>-0.68276756133864691</v>
+        <v>-0.70247217964949693</v>
       </c>
       <c r="E16">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -721,13 +722,13 @@
         <v>3</v>
       </c>
       <c r="B17" s="7">
-        <v>3591550</v>
+        <v>3504400</v>
       </c>
       <c r="C17" s="7">
-        <v>-1326800</v>
+        <v>-1225490</v>
       </c>
       <c r="D17" s="5">
-        <v>-0.36942267266222106</v>
+        <v>-0.34970037666932996</v>
       </c>
       <c r="E17">
         <v>7</v>
@@ -738,13 +739,13 @@
         <v>1</v>
       </c>
       <c r="B18" s="7">
-        <v>1632240</v>
+        <v>1543740</v>
       </c>
       <c r="C18" s="7">
-        <v>-1152920</v>
+        <v>-1034500</v>
       </c>
       <c r="D18" s="5">
-        <v>-0.7063422045777582</v>
+        <v>-0.67012579838573849</v>
       </c>
       <c r="E18">
         <v>7</v>
@@ -753,13 +754,13 @@
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="6">
-        <v>5640330</v>
+        <v>5348280</v>
       </c>
       <c r="C19" s="6">
-        <v>-2764120</v>
+        <v>-2470830</v>
       </c>
       <c r="D19" s="5">
-        <v>-0.49006352465192637</v>
+        <v>-0.46198590948865803</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -774,16 +775,16 @@
         <v>2</v>
       </c>
       <c r="B21" s="7">
-        <v>5036250</v>
+        <v>5029350</v>
       </c>
       <c r="C21" s="7">
-        <v>-1802045</v>
+        <v>-1731790</v>
       </c>
       <c r="D21" s="5">
-        <v>-0.35781484239265327</v>
+        <v>-0.34433674331673081</v>
       </c>
       <c r="E21">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -792,7 +793,7 @@
         <v>276670</v>
       </c>
       <c r="D22" s="5">
-        <v>5.4935716058575328E-2</v>
+        <v>5.5011084931452375E-2</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -800,13 +801,13 @@
         <v>8</v>
       </c>
       <c r="B23" s="6">
-        <v>10676580</v>
+        <v>10377630</v>
       </c>
       <c r="C23" s="6">
-        <v>-4566165</v>
+        <v>-4202620</v>
       </c>
       <c r="D23" s="5">
-        <v>-0.42768049319164003</v>
+        <v>-0.40496914998896666</v>
       </c>
       <c r="E23">
         <v>28</v>
@@ -818,6 +819,337 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D397C17-7D11-44D9-80F7-712E06707A25}">
+  <dimension ref="A1:E23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="19.44140625" customWidth="1"/>
+    <col min="3" max="3" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="9">
+        <v>45793</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1">
+        <v>1195.77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E2" s="8">
+        <f>(E1-E13)/E13</f>
+        <v>-1.2527458007828689E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
+        <v>4</v>
+      </c>
+      <c r="B4" s="7">
+        <v>1841230</v>
+      </c>
+      <c r="C4" s="7">
+        <v>-679870</v>
+      </c>
+      <c r="D4" s="5">
+        <f>C4/B4</f>
+        <v>-0.36924773113625131</v>
+      </c>
+      <c r="E4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <v>3</v>
+      </c>
+      <c r="B5" s="7">
+        <v>2380500</v>
+      </c>
+      <c r="C5" s="7">
+        <v>-1443820</v>
+      </c>
+      <c r="D5" s="5">
+        <f>C5/B5</f>
+        <v>-0.60651963873135895</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>1</v>
+      </c>
+      <c r="B6" s="7">
+        <v>1977200</v>
+      </c>
+      <c r="C6" s="7">
+        <v>-1312520</v>
+      </c>
+      <c r="D6" s="5">
+        <f>C6/B6</f>
+        <v>-0.66382763503944975</v>
+      </c>
+      <c r="E6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="4"/>
+      <c r="B7" s="6">
+        <f>SUM(B4:B6)</f>
+        <v>6198930</v>
+      </c>
+      <c r="C7" s="6">
+        <f>SUM(C4:C6)</f>
+        <v>-3436210</v>
+      </c>
+      <c r="D7" s="5">
+        <f>C7/B7</f>
+        <v>-0.55432308479043968</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B8" s="6"/>
+      <c r="C8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <v>2</v>
+      </c>
+      <c r="B9" s="7">
+        <v>4971598</v>
+      </c>
+      <c r="C9" s="7">
+        <v>-1727818</v>
+      </c>
+      <c r="D9" s="5">
+        <f>C9/B9</f>
+        <v>-0.34753775345472421</v>
+      </c>
+      <c r="E9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B10" s="7"/>
+      <c r="C10" s="7">
+        <v>271302.75</v>
+      </c>
+      <c r="D10" s="5">
+        <f>C10/B9</f>
+        <v>5.4570532452543424E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="6">
+        <f>B7+B9</f>
+        <v>11170528</v>
+      </c>
+      <c r="C11" s="6">
+        <f>C7+C9</f>
+        <v>-5164028</v>
+      </c>
+      <c r="D11" s="5">
+        <f>C11/B11</f>
+        <v>-0.46229041277189403</v>
+      </c>
+      <c r="E11">
+        <f>E4+E5+E6+E9</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="9">
+        <v>45786</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1210.94</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E14" s="8">
+        <v>9.975145540376016E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
+        <v>4</v>
+      </c>
+      <c r="B16" s="7">
+        <v>1841230</v>
+      </c>
+      <c r="C16" s="7">
+        <v>-710950</v>
+      </c>
+      <c r="D16" s="5">
+        <v>-0.38612775155738283</v>
+      </c>
+      <c r="E16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="4">
+        <v>3</v>
+      </c>
+      <c r="B17" s="7">
+        <v>2380500</v>
+      </c>
+      <c r="C17" s="7">
+        <v>-1391200</v>
+      </c>
+      <c r="D17" s="5">
+        <v>-0.58441503885738288</v>
+      </c>
+      <c r="E17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="4">
+        <v>1</v>
+      </c>
+      <c r="B18" s="7">
+        <v>2091200</v>
+      </c>
+      <c r="C18" s="7">
+        <v>-1352900</v>
+      </c>
+      <c r="D18" s="5">
+        <v>-0.64694912012241779</v>
+      </c>
+      <c r="E18">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="4"/>
+      <c r="B19" s="6">
+        <v>6312930</v>
+      </c>
+      <c r="C19" s="6">
+        <v>-3455050</v>
+      </c>
+      <c r="D19" s="5">
+        <v>-0.5472973722186053</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B20" s="6"/>
+      <c r="C20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="5"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="4">
+        <v>2</v>
+      </c>
+      <c r="B21" s="7">
+        <v>4924600</v>
+      </c>
+      <c r="C21" s="7">
+        <v>-1735475</v>
+      </c>
+      <c r="D21" s="5">
+        <v>-0.35240933273768427</v>
+      </c>
+      <c r="E21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B22" s="7"/>
+      <c r="C22" s="7">
+        <v>265724.25</v>
+      </c>
+      <c r="D22" s="5">
+        <v>5.3958544856435038E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="6">
+        <v>11237530</v>
+      </c>
+      <c r="C23" s="6">
+        <v>-5190525</v>
+      </c>
+      <c r="D23" s="5">
+        <v>-0.46189198160093897</v>
+      </c>
+      <c r="E23">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E4B6815-B29A-446B-B4C9-96F02B6A5E9D}">
   <dimension ref="A1:E23"/>
   <sheetViews>
@@ -1148,7 +1480,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CEBF241-CA72-4CB5-8C3F-136F3E8408B6}">
   <dimension ref="A1:E23"/>
   <sheetViews>
@@ -1479,7 +1811,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37D4DEBF-7012-4D3C-9A89-43C32C47B6EC}">
   <dimension ref="A1:E23"/>
   <sheetViews>
@@ -1810,7 +2142,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9C4D270-1B52-4C5B-9E28-60314EA92662}">
   <dimension ref="A1:E23"/>
   <sheetViews>
@@ -2141,7 +2473,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC4C31B2-332E-43CB-8F48-59EA1BD2A5D3}">
   <dimension ref="A1:E23"/>
   <sheetViews>
@@ -2472,7 +2804,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E23"/>
   <sheetViews>
@@ -2807,6 +3139,337 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F32CB65-9456-4E75-B848-3BAB2F7365C7}">
+  <dimension ref="A1:E23"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="19.44140625" customWidth="1"/>
+    <col min="3" max="3" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="9">
+        <v>45877</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1">
+        <v>1259.07</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E2" s="8">
+        <f>(E1-E13)/E13</f>
+        <v>3.444111243478605E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
+        <v>4</v>
+      </c>
+      <c r="B4" s="7">
+        <v>300140</v>
+      </c>
+      <c r="C4" s="7">
+        <v>-210840</v>
+      </c>
+      <c r="D4" s="5">
+        <f>C4/B4</f>
+        <v>-0.70247217964949693</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <v>3</v>
+      </c>
+      <c r="B5" s="7">
+        <v>3504400</v>
+      </c>
+      <c r="C5" s="7">
+        <v>-1225490</v>
+      </c>
+      <c r="D5" s="5">
+        <f>C5/B5</f>
+        <v>-0.34970037666932996</v>
+      </c>
+      <c r="E5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>1</v>
+      </c>
+      <c r="B6" s="7">
+        <v>1543740</v>
+      </c>
+      <c r="C6" s="7">
+        <v>-1034500</v>
+      </c>
+      <c r="D6" s="5">
+        <f>C6/B6</f>
+        <v>-0.67012579838573849</v>
+      </c>
+      <c r="E6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="4"/>
+      <c r="B7" s="6">
+        <f>SUM(B4:B6)</f>
+        <v>5348280</v>
+      </c>
+      <c r="C7" s="6">
+        <f>SUM(C4:C6)</f>
+        <v>-2470830</v>
+      </c>
+      <c r="D7" s="5">
+        <f>C7/B7</f>
+        <v>-0.46198590948865803</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B8" s="6"/>
+      <c r="C8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <v>2</v>
+      </c>
+      <c r="B9" s="7">
+        <v>5029350</v>
+      </c>
+      <c r="C9" s="7">
+        <v>-1731790</v>
+      </c>
+      <c r="D9" s="5">
+        <f>C9/B9</f>
+        <v>-0.34433674331673081</v>
+      </c>
+      <c r="E9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B10" s="7"/>
+      <c r="C10" s="7">
+        <v>276670</v>
+      </c>
+      <c r="D10" s="5">
+        <f>C10/B9</f>
+        <v>5.5011084931452375E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="6">
+        <f>B7+B9</f>
+        <v>10377630</v>
+      </c>
+      <c r="C11" s="6">
+        <f>C7+C9</f>
+        <v>-4202620</v>
+      </c>
+      <c r="D11" s="5">
+        <f>C11/B11</f>
+        <v>-0.40496914998896666</v>
+      </c>
+      <c r="E11">
+        <f>E4+E5+E6+E9</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="9">
+        <v>45863</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1217.1500000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E14" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
+        <v>4</v>
+      </c>
+      <c r="B16" s="7">
+        <v>416540</v>
+      </c>
+      <c r="C16" s="7">
+        <v>-284400</v>
+      </c>
+      <c r="D16" s="5">
+        <v>-0.68276756133864691</v>
+      </c>
+      <c r="E16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="4">
+        <v>3</v>
+      </c>
+      <c r="B17" s="7">
+        <v>3591550</v>
+      </c>
+      <c r="C17" s="7">
+        <v>-1326800</v>
+      </c>
+      <c r="D17" s="5">
+        <v>-0.36942267266222106</v>
+      </c>
+      <c r="E17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="4">
+        <v>1</v>
+      </c>
+      <c r="B18" s="7">
+        <v>1632240</v>
+      </c>
+      <c r="C18" s="7">
+        <v>-1152920</v>
+      </c>
+      <c r="D18" s="5">
+        <v>-0.7063422045777582</v>
+      </c>
+      <c r="E18">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="4"/>
+      <c r="B19" s="6">
+        <v>5640330</v>
+      </c>
+      <c r="C19" s="6">
+        <v>-2764120</v>
+      </c>
+      <c r="D19" s="5">
+        <v>-0.49006352465192637</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B20" s="6"/>
+      <c r="C20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="5"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="4">
+        <v>2</v>
+      </c>
+      <c r="B21" s="7">
+        <v>5036250</v>
+      </c>
+      <c r="C21" s="7">
+        <v>-1802045</v>
+      </c>
+      <c r="D21" s="5">
+        <v>-0.35781484239265327</v>
+      </c>
+      <c r="E21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B22" s="7"/>
+      <c r="C22" s="7">
+        <v>276670</v>
+      </c>
+      <c r="D22" s="5">
+        <v>5.4935716058575328E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="6">
+        <v>10676580</v>
+      </c>
+      <c r="C23" s="6">
+        <v>-4566165</v>
+      </c>
+      <c r="D23" s="5">
+        <v>-0.42768049319164003</v>
+      </c>
+      <c r="E23">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C9EF463-2F30-449E-9ACA-B3134C3C5447}">
   <dimension ref="A1:E23"/>
   <sheetViews>
@@ -3137,7 +3800,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DA7DE61-BBCF-4D9C-9297-1085B1D8263C}">
   <dimension ref="A1:E23"/>
   <sheetViews>
@@ -3468,7 +4131,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{373050F8-72D0-4C2F-8B80-26C88CE91628}">
   <dimension ref="A1:E23"/>
   <sheetViews>
@@ -3799,7 +4462,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E153650-B0E8-466D-8F31-78659B503768}">
   <dimension ref="A1:E23"/>
   <sheetViews>
@@ -4130,7 +4793,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{552CD9C1-2030-4328-9D69-E157E8DC4B84}">
   <dimension ref="A1:E23"/>
   <sheetViews>
@@ -4461,7 +5124,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DC193AA-68B5-4D75-8672-E97855DF0173}">
   <dimension ref="A1:E23"/>
   <sheetViews>
@@ -4792,7 +5455,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30DD628C-CC42-43B0-A721-1E91130D13A5}">
   <dimension ref="A1:E23"/>
   <sheetViews>
@@ -5121,335 +5784,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D397C17-7D11-44D9-80F7-712E06707A25}">
-  <dimension ref="A1:E23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="19.44140625" customWidth="1"/>
-    <col min="3" max="3" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.44140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="9">
-        <v>45793</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1">
-        <v>1195.77</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E2" s="8">
-        <f>(E1-E13)/E13</f>
-        <v>-1.2527458007828689E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
-        <v>4</v>
-      </c>
-      <c r="B4" s="7">
-        <v>1841230</v>
-      </c>
-      <c r="C4" s="7">
-        <v>-679870</v>
-      </c>
-      <c r="D4" s="5">
-        <f>C4/B4</f>
-        <v>-0.36924773113625131</v>
-      </c>
-      <c r="E4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
-        <v>3</v>
-      </c>
-      <c r="B5" s="7">
-        <v>2380500</v>
-      </c>
-      <c r="C5" s="7">
-        <v>-1443820</v>
-      </c>
-      <c r="D5" s="5">
-        <f>C5/B5</f>
-        <v>-0.60651963873135895</v>
-      </c>
-      <c r="E5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
-        <v>1</v>
-      </c>
-      <c r="B6" s="7">
-        <v>1977200</v>
-      </c>
-      <c r="C6" s="7">
-        <v>-1312520</v>
-      </c>
-      <c r="D6" s="5">
-        <f>C6/B6</f>
-        <v>-0.66382763503944975</v>
-      </c>
-      <c r="E6">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="4"/>
-      <c r="B7" s="6">
-        <f>SUM(B4:B6)</f>
-        <v>6198930</v>
-      </c>
-      <c r="C7" s="6">
-        <f>SUM(C4:C6)</f>
-        <v>-3436210</v>
-      </c>
-      <c r="D7" s="5">
-        <f>C7/B7</f>
-        <v>-0.55432308479043968</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B8" s="6"/>
-      <c r="C8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="5"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="4">
-        <v>2</v>
-      </c>
-      <c r="B9" s="7">
-        <v>4971598</v>
-      </c>
-      <c r="C9" s="7">
-        <v>-1727818</v>
-      </c>
-      <c r="D9" s="5">
-        <f>C9/B9</f>
-        <v>-0.34753775345472421</v>
-      </c>
-      <c r="E9">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B10" s="7"/>
-      <c r="C10" s="7">
-        <v>271302.75</v>
-      </c>
-      <c r="D10" s="5">
-        <f>C10/B9</f>
-        <v>5.4570532452543424E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="6">
-        <f>B7+B9</f>
-        <v>11170528</v>
-      </c>
-      <c r="C11" s="6">
-        <f>C7+C9</f>
-        <v>-5164028</v>
-      </c>
-      <c r="D11" s="5">
-        <f>C11/B11</f>
-        <v>-0.46229041277189403</v>
-      </c>
-      <c r="E11">
-        <f>E4+E5+E6+E9</f>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="9">
-        <v>45786</v>
-      </c>
-      <c r="D13" t="s">
-        <v>1</v>
-      </c>
-      <c r="E13">
-        <v>1210.94</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E14" s="8">
-        <v>9.975145540376016E-3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="4">
-        <v>4</v>
-      </c>
-      <c r="B16" s="7">
-        <v>1841230</v>
-      </c>
-      <c r="C16" s="7">
-        <v>-710950</v>
-      </c>
-      <c r="D16" s="5">
-        <v>-0.38612775155738283</v>
-      </c>
-      <c r="E16">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="4">
-        <v>3</v>
-      </c>
-      <c r="B17" s="7">
-        <v>2380500</v>
-      </c>
-      <c r="C17" s="7">
-        <v>-1391200</v>
-      </c>
-      <c r="D17" s="5">
-        <v>-0.58441503885738288</v>
-      </c>
-      <c r="E17">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="4">
-        <v>1</v>
-      </c>
-      <c r="B18" s="7">
-        <v>2091200</v>
-      </c>
-      <c r="C18" s="7">
-        <v>-1352900</v>
-      </c>
-      <c r="D18" s="5">
-        <v>-0.64694912012241779</v>
-      </c>
-      <c r="E18">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="4"/>
-      <c r="B19" s="6">
-        <v>6312930</v>
-      </c>
-      <c r="C19" s="6">
-        <v>-3455050</v>
-      </c>
-      <c r="D19" s="5">
-        <v>-0.5472973722186053</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B20" s="6"/>
-      <c r="C20" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" s="5"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="4">
-        <v>2</v>
-      </c>
-      <c r="B21" s="7">
-        <v>4924600</v>
-      </c>
-      <c r="C21" s="7">
-        <v>-1735475</v>
-      </c>
-      <c r="D21" s="5">
-        <v>-0.35240933273768427</v>
-      </c>
-      <c r="E21">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B22" s="7"/>
-      <c r="C22" s="7">
-        <v>265724.25</v>
-      </c>
-      <c r="D22" s="5">
-        <v>5.3958544856435038E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B23" s="6">
-        <v>11237530</v>
-      </c>
-      <c r="C23" s="6">
-        <v>-5190525</v>
-      </c>
-      <c r="D23" s="5">
-        <v>-0.46189198160093897</v>
-      </c>
-      <c r="E23">
-        <v>29</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Excel/04-Amt-by-period.xlsx
+++ b/Excel/04-Amt-by-period.xlsx
@@ -8,27 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c8862359375ebd62/A5/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="210" documentId="11_4407D90E547F242EEA22E4B75BC69E7FC8C566A2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E12F2A62-AE9F-4DC0-B6A9-3790F751623D}"/>
+  <xr:revisionPtr revIDLastSave="224" documentId="11_4407D90E547F242EEA22E4B75BC69E7FC8C566A2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AED24CA4-29B0-4E9D-A6E5-FD486EF0AB8A}"/>
   <bookViews>
-    <workbookView xWindow="13428" yWindow="1320" windowWidth="8820" windowHeight="9948" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14256" yWindow="1644" windowWidth="8832" windowHeight="10032" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="250815" sheetId="16" r:id="rId1"/>
-    <sheet name="250808" sheetId="15" r:id="rId2"/>
-    <sheet name="250718" sheetId="14" r:id="rId3"/>
-    <sheet name="250704" sheetId="13" r:id="rId4"/>
-    <sheet name="250627" sheetId="12" r:id="rId5"/>
-    <sheet name="250620" sheetId="11" r:id="rId6"/>
-    <sheet name="250613" sheetId="10" r:id="rId7"/>
-    <sheet name="250530" sheetId="9" r:id="rId8"/>
-    <sheet name="250523" sheetId="8" r:id="rId9"/>
-    <sheet name="250516" sheetId="7" r:id="rId10"/>
-    <sheet name="250509" sheetId="6" r:id="rId11"/>
-    <sheet name="250502" sheetId="5" r:id="rId12"/>
-    <sheet name="250411" sheetId="4" r:id="rId13"/>
-    <sheet name="250221" sheetId="3" r:id="rId14"/>
-    <sheet name="250131" sheetId="2" r:id="rId15"/>
-    <sheet name="1230" sheetId="1" r:id="rId16"/>
+    <sheet name="250905" sheetId="17" r:id="rId1"/>
+    <sheet name="250815" sheetId="16" r:id="rId2"/>
+    <sheet name="250808" sheetId="15" r:id="rId3"/>
+    <sheet name="250718" sheetId="14" r:id="rId4"/>
+    <sheet name="250704" sheetId="13" r:id="rId5"/>
+    <sheet name="250627" sheetId="12" r:id="rId6"/>
+    <sheet name="250620" sheetId="11" r:id="rId7"/>
+    <sheet name="250613" sheetId="10" r:id="rId8"/>
+    <sheet name="250530" sheetId="9" r:id="rId9"/>
+    <sheet name="250523" sheetId="8" r:id="rId10"/>
+    <sheet name="250516" sheetId="7" r:id="rId11"/>
+    <sheet name="250509" sheetId="6" r:id="rId12"/>
+    <sheet name="250502" sheetId="5" r:id="rId13"/>
+    <sheet name="250411" sheetId="4" r:id="rId14"/>
+    <sheet name="250221" sheetId="3" r:id="rId15"/>
+    <sheet name="250131" sheetId="2" r:id="rId16"/>
+    <sheet name="1230" sheetId="1" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -70,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="9">
   <si>
     <t>As end of</t>
   </si>
@@ -186,10 +187,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -488,10 +485,341 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E6F400C-8AD0-4837-BB77-C3C717B678B6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{376E0E9D-AFC7-48C4-8BA4-CDBEFA563129}">
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="19.44140625" customWidth="1"/>
+    <col min="3" max="3" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="9">
+        <v>45905</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1">
+        <v>1264.8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E2" s="8">
+        <f>(E1-E13)/E13</f>
+        <v>4.2718076574930373E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
+        <v>4</v>
+      </c>
+      <c r="B4" s="7">
+        <v>420640</v>
+      </c>
+      <c r="C4" s="7">
+        <v>-211280</v>
+      </c>
+      <c r="D4" s="5">
+        <f>C4/B4</f>
+        <v>-0.50228223659186</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <v>3</v>
+      </c>
+      <c r="B5" s="7">
+        <v>3588400</v>
+      </c>
+      <c r="C5" s="7">
+        <v>-1320030</v>
+      </c>
+      <c r="D5" s="5">
+        <f>C5/B5</f>
+        <v>-0.36786032772266192</v>
+      </c>
+      <c r="E5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>1</v>
+      </c>
+      <c r="B6" s="7">
+        <v>1543740</v>
+      </c>
+      <c r="C6" s="7">
+        <v>-984800</v>
+      </c>
+      <c r="D6" s="5">
+        <f>C6/B6</f>
+        <v>-0.63793125785430194</v>
+      </c>
+      <c r="E6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="4"/>
+      <c r="B7" s="6">
+        <f>SUM(B4:B6)</f>
+        <v>5552780</v>
+      </c>
+      <c r="C7" s="6">
+        <f>SUM(C4:C6)</f>
+        <v>-2516110</v>
+      </c>
+      <c r="D7" s="5">
+        <f>C7/B7</f>
+        <v>-0.45312618184044751</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B8" s="6"/>
+      <c r="C8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <v>2</v>
+      </c>
+      <c r="B9" s="7">
+        <v>5128200</v>
+      </c>
+      <c r="C9" s="7">
+        <v>-1791305</v>
+      </c>
+      <c r="D9" s="5">
+        <f>C9/B9</f>
+        <v>-0.34930482430482429</v>
+      </c>
+      <c r="E9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B10" s="7"/>
+      <c r="C10" s="7">
+        <v>295995.7</v>
+      </c>
+      <c r="D10" s="5">
+        <f>C10/B9</f>
+        <v>5.7719219219219221E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="6">
+        <f>B7+B9</f>
+        <v>10680980</v>
+      </c>
+      <c r="C11" s="6">
+        <f>C7+C9</f>
+        <v>-4307415</v>
+      </c>
+      <c r="D11" s="5">
+        <f>C11/B11</f>
+        <v>-0.40327900623351043</v>
+      </c>
+      <c r="E11">
+        <f>E4+E5+E6+E9</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="9">
+        <v>45884</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1259.42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E14" s="8">
+        <v>2.7798295567374047E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
+        <v>4</v>
+      </c>
+      <c r="B16" s="7">
+        <v>300140</v>
+      </c>
+      <c r="C16" s="7">
+        <v>-211740</v>
+      </c>
+      <c r="D16" s="5">
+        <v>-0.70547078030252552</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="4">
+        <v>3</v>
+      </c>
+      <c r="B17" s="7">
+        <v>3504400</v>
+      </c>
+      <c r="C17" s="7">
+        <v>-1336730</v>
+      </c>
+      <c r="D17" s="5">
+        <v>-0.38144332838717043</v>
+      </c>
+      <c r="E17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="4">
+        <v>1</v>
+      </c>
+      <c r="B18" s="7">
+        <v>1543740</v>
+      </c>
+      <c r="C18" s="7">
+        <v>-1054720</v>
+      </c>
+      <c r="D18" s="5">
+        <v>-0.68322385893997695</v>
+      </c>
+      <c r="E18">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="4"/>
+      <c r="B19" s="6">
+        <v>5348280</v>
+      </c>
+      <c r="C19" s="6">
+        <v>-2603190</v>
+      </c>
+      <c r="D19" s="5">
+        <v>-0.4867340528169804</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B20" s="6"/>
+      <c r="C20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="5"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="4">
+        <v>2</v>
+      </c>
+      <c r="B21" s="7">
+        <v>5138100</v>
+      </c>
+      <c r="C21" s="7">
+        <v>-1748790</v>
+      </c>
+      <c r="D21" s="5">
+        <v>-0.34035733053074091</v>
+      </c>
+      <c r="E21">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B22" s="7"/>
+      <c r="C22" s="7">
+        <v>299817.7</v>
+      </c>
+      <c r="D22" s="5">
+        <v>5.8351861583075461E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="6">
+        <v>10486380</v>
+      </c>
+      <c r="C23" s="6">
+        <v>-4351980</v>
+      </c>
+      <c r="D23" s="5">
+        <v>-0.41501261636522802</v>
+      </c>
+      <c r="E23">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30DD628C-CC42-43B0-A721-1E91130D13A5}">
+  <dimension ref="A1:E23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -507,19 +835,19 @@
         <v>0</v>
       </c>
       <c r="C1" s="9">
-        <v>45884</v>
+        <v>45800</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
       </c>
       <c r="E1">
-        <v>1259.42</v>
+        <v>1176.3599999999999</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E2" s="8">
         <f>(E1-E13)/E13</f>
-        <v>2.7798295567374047E-4</v>
+        <v>-1.6232218570460942E-2</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -539,22 +867,22 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>4</v>
       </c>
       <c r="B4" s="7">
-        <v>300140</v>
+        <v>1841230</v>
       </c>
       <c r="C4" s="7">
-        <v>-211740</v>
+        <v>-662540</v>
       </c>
       <c r="D4" s="5">
         <f>C4/B4</f>
-        <v>-0.70547078030252552</v>
+        <v>-0.35983554471738999</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -562,17 +890,17 @@
         <v>3</v>
       </c>
       <c r="B5" s="7">
-        <v>3504400</v>
+        <v>2409900</v>
       </c>
       <c r="C5" s="7">
-        <v>-1336730</v>
+        <v>-1468730</v>
       </c>
       <c r="D5" s="5">
         <f>C5/B5</f>
-        <v>-0.38144332838717043</v>
+        <v>-0.6094568239346031</v>
       </c>
       <c r="E5">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -580,32 +908,32 @@
         <v>1</v>
       </c>
       <c r="B6" s="7">
-        <v>1543740</v>
+        <v>1977200</v>
       </c>
       <c r="C6" s="7">
-        <v>-1054720</v>
+        <v>-1316200</v>
       </c>
       <c r="D6" s="5">
         <f>C6/B6</f>
-        <v>-0.68322385893997695</v>
+        <v>-0.66568885292332591</v>
       </c>
       <c r="E6">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="6">
         <f>SUM(B4:B6)</f>
-        <v>5348280</v>
+        <v>6228330</v>
       </c>
       <c r="C7" s="6">
         <f>SUM(C4:C6)</f>
-        <v>-2603190</v>
+        <v>-3447470</v>
       </c>
       <c r="D7" s="5">
         <f>C7/B7</f>
-        <v>-0.4867340528169804</v>
+        <v>-0.55351434493676477</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -620,27 +948,27 @@
         <v>2</v>
       </c>
       <c r="B9" s="7">
-        <v>5138100</v>
+        <v>4971598</v>
       </c>
       <c r="C9" s="7">
-        <v>-1748790</v>
+        <v>-1731098</v>
       </c>
       <c r="D9" s="5">
         <f>C9/B9</f>
-        <v>-0.34035733053074091</v>
+        <v>-0.34819750108516417</v>
       </c>
       <c r="E9">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B10" s="7"/>
       <c r="C10" s="7">
-        <v>299817.7</v>
+        <v>271302.75</v>
       </c>
       <c r="D10" s="5">
         <f>C10/B9</f>
-        <v>5.8351861583075461E-2</v>
+        <v>5.4570532452543424E-2</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -649,15 +977,15 @@
       </c>
       <c r="B11" s="6">
         <f>B7+B9</f>
-        <v>10486380</v>
+        <v>11199928</v>
       </c>
       <c r="C11" s="6">
         <f>C7+C9</f>
-        <v>-4351980</v>
+        <v>-5178568</v>
       </c>
       <c r="D11" s="5">
         <f>C11/B11</f>
-        <v>-0.41501261636522802</v>
+        <v>-0.46237511526859815</v>
       </c>
       <c r="E11">
         <f>E4+E5+E6+E9</f>
@@ -669,18 +997,18 @@
         <v>0</v>
       </c>
       <c r="C13" s="9">
-        <v>45877</v>
+        <v>45793</v>
       </c>
       <c r="D13" t="s">
         <v>1</v>
       </c>
       <c r="E13">
-        <v>1259.07</v>
+        <v>1195.77</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E14" s="8">
-        <v>3.444111243478605E-2</v>
+        <v>-1.2527458007828689E-2</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -705,16 +1033,16 @@
         <v>4</v>
       </c>
       <c r="B16" s="7">
-        <v>300140</v>
+        <v>1841230</v>
       </c>
       <c r="C16" s="7">
-        <v>-210840</v>
+        <v>-679870</v>
       </c>
       <c r="D16" s="5">
-        <v>-0.70247217964949693</v>
+        <v>-0.36924773113625131</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -722,16 +1050,16 @@
         <v>3</v>
       </c>
       <c r="B17" s="7">
-        <v>3504400</v>
+        <v>2380500</v>
       </c>
       <c r="C17" s="7">
-        <v>-1225490</v>
+        <v>-1443820</v>
       </c>
       <c r="D17" s="5">
-        <v>-0.34970037666932996</v>
+        <v>-0.60651963873135895</v>
       </c>
       <c r="E17">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -739,28 +1067,28 @@
         <v>1</v>
       </c>
       <c r="B18" s="7">
-        <v>1543740</v>
+        <v>1977200</v>
       </c>
       <c r="C18" s="7">
-        <v>-1034500</v>
+        <v>-1312520</v>
       </c>
       <c r="D18" s="5">
-        <v>-0.67012579838573849</v>
+        <v>-0.66382763503944975</v>
       </c>
       <c r="E18">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="6">
-        <v>5348280</v>
+        <v>6198930</v>
       </c>
       <c r="C19" s="6">
-        <v>-2470830</v>
+        <v>-3436210</v>
       </c>
       <c r="D19" s="5">
-        <v>-0.46198590948865803</v>
+        <v>-0.55432308479043968</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -775,25 +1103,25 @@
         <v>2</v>
       </c>
       <c r="B21" s="7">
-        <v>5029350</v>
+        <v>4971598</v>
       </c>
       <c r="C21" s="7">
-        <v>-1731790</v>
+        <v>-1727818</v>
       </c>
       <c r="D21" s="5">
-        <v>-0.34433674331673081</v>
+        <v>-0.34753775345472421</v>
       </c>
       <c r="E21">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B22" s="7"/>
       <c r="C22" s="7">
-        <v>276670</v>
+        <v>271302.75</v>
       </c>
       <c r="D22" s="5">
-        <v>5.5011084931452375E-2</v>
+        <v>5.4570532452543424E-2</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -801,13 +1129,13 @@
         <v>8</v>
       </c>
       <c r="B23" s="6">
-        <v>10377630</v>
+        <v>11170528</v>
       </c>
       <c r="C23" s="6">
-        <v>-4202620</v>
+        <v>-5164028</v>
       </c>
       <c r="D23" s="5">
-        <v>-0.40496914998896666</v>
+        <v>-0.46229041277189403</v>
       </c>
       <c r="E23">
         <v>28</v>
@@ -818,7 +1146,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D397C17-7D11-44D9-80F7-712E06707A25}">
   <dimension ref="A1:E23"/>
   <sheetViews>
@@ -1149,7 +1477,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E4B6815-B29A-446B-B4C9-96F02B6A5E9D}">
   <dimension ref="A1:E23"/>
   <sheetViews>
@@ -1480,7 +1808,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CEBF241-CA72-4CB5-8C3F-136F3E8408B6}">
   <dimension ref="A1:E23"/>
   <sheetViews>
@@ -1811,7 +2139,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37D4DEBF-7012-4D3C-9A89-43C32C47B6EC}">
   <dimension ref="A1:E23"/>
   <sheetViews>
@@ -2142,7 +2470,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9C4D270-1B52-4C5B-9E28-60314EA92662}">
   <dimension ref="A1:E23"/>
   <sheetViews>
@@ -2473,7 +2801,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC4C31B2-332E-43CB-8F48-59EA1BD2A5D3}">
   <dimension ref="A1:E23"/>
   <sheetViews>
@@ -2804,7 +3132,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E23"/>
   <sheetViews>
@@ -3139,6 +3467,337 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E6F400C-8AD0-4837-BB77-C3C717B678B6}">
+  <dimension ref="A1:E23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="19.44140625" customWidth="1"/>
+    <col min="3" max="3" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="9">
+        <v>45884</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1">
+        <v>1259.42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E2" s="8">
+        <f>(E1-E13)/E13</f>
+        <v>2.7798295567374047E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
+        <v>4</v>
+      </c>
+      <c r="B4" s="7">
+        <v>300140</v>
+      </c>
+      <c r="C4" s="7">
+        <v>-211740</v>
+      </c>
+      <c r="D4" s="5">
+        <f>C4/B4</f>
+        <v>-0.70547078030252552</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <v>3</v>
+      </c>
+      <c r="B5" s="7">
+        <v>3504400</v>
+      </c>
+      <c r="C5" s="7">
+        <v>-1336730</v>
+      </c>
+      <c r="D5" s="5">
+        <f>C5/B5</f>
+        <v>-0.38144332838717043</v>
+      </c>
+      <c r="E5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>1</v>
+      </c>
+      <c r="B6" s="7">
+        <v>1543740</v>
+      </c>
+      <c r="C6" s="7">
+        <v>-1054720</v>
+      </c>
+      <c r="D6" s="5">
+        <f>C6/B6</f>
+        <v>-0.68322385893997695</v>
+      </c>
+      <c r="E6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="4"/>
+      <c r="B7" s="6">
+        <f>SUM(B4:B6)</f>
+        <v>5348280</v>
+      </c>
+      <c r="C7" s="6">
+        <f>SUM(C4:C6)</f>
+        <v>-2603190</v>
+      </c>
+      <c r="D7" s="5">
+        <f>C7/B7</f>
+        <v>-0.4867340528169804</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B8" s="6"/>
+      <c r="C8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <v>2</v>
+      </c>
+      <c r="B9" s="7">
+        <v>5138100</v>
+      </c>
+      <c r="C9" s="7">
+        <v>-1748790</v>
+      </c>
+      <c r="D9" s="5">
+        <f>C9/B9</f>
+        <v>-0.34035733053074091</v>
+      </c>
+      <c r="E9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B10" s="7"/>
+      <c r="C10" s="7">
+        <v>299817.7</v>
+      </c>
+      <c r="D10" s="5">
+        <f>C10/B9</f>
+        <v>5.8351861583075461E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="6">
+        <f>B7+B9</f>
+        <v>10486380</v>
+      </c>
+      <c r="C11" s="6">
+        <f>C7+C9</f>
+        <v>-4351980</v>
+      </c>
+      <c r="D11" s="5">
+        <f>C11/B11</f>
+        <v>-0.41501261636522802</v>
+      </c>
+      <c r="E11">
+        <f>E4+E5+E6+E9</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="9">
+        <v>45877</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1259.07</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E14" s="8">
+        <v>3.444111243478605E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
+        <v>4</v>
+      </c>
+      <c r="B16" s="7">
+        <v>300140</v>
+      </c>
+      <c r="C16" s="7">
+        <v>-210840</v>
+      </c>
+      <c r="D16" s="5">
+        <v>-0.70247217964949693</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="4">
+        <v>3</v>
+      </c>
+      <c r="B17" s="7">
+        <v>3504400</v>
+      </c>
+      <c r="C17" s="7">
+        <v>-1225490</v>
+      </c>
+      <c r="D17" s="5">
+        <v>-0.34970037666932996</v>
+      </c>
+      <c r="E17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="4">
+        <v>1</v>
+      </c>
+      <c r="B18" s="7">
+        <v>1543740</v>
+      </c>
+      <c r="C18" s="7">
+        <v>-1034500</v>
+      </c>
+      <c r="D18" s="5">
+        <v>-0.67012579838573849</v>
+      </c>
+      <c r="E18">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="4"/>
+      <c r="B19" s="6">
+        <v>5348280</v>
+      </c>
+      <c r="C19" s="6">
+        <v>-2470830</v>
+      </c>
+      <c r="D19" s="5">
+        <v>-0.46198590948865803</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B20" s="6"/>
+      <c r="C20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="5"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="4">
+        <v>2</v>
+      </c>
+      <c r="B21" s="7">
+        <v>5029350</v>
+      </c>
+      <c r="C21" s="7">
+        <v>-1731790</v>
+      </c>
+      <c r="D21" s="5">
+        <v>-0.34433674331673081</v>
+      </c>
+      <c r="E21">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B22" s="7"/>
+      <c r="C22" s="7">
+        <v>276670</v>
+      </c>
+      <c r="D22" s="5">
+        <v>5.5011084931452375E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="6">
+        <v>10377630</v>
+      </c>
+      <c r="C23" s="6">
+        <v>-4202620</v>
+      </c>
+      <c r="D23" s="5">
+        <v>-0.40496914998896666</v>
+      </c>
+      <c r="E23">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F32CB65-9456-4E75-B848-3BAB2F7365C7}">
   <dimension ref="A1:E23"/>
   <sheetViews>
@@ -3469,7 +4128,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C9EF463-2F30-449E-9ACA-B3134C3C5447}">
   <dimension ref="A1:E23"/>
   <sheetViews>
@@ -3800,7 +4459,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DA7DE61-BBCF-4D9C-9297-1085B1D8263C}">
   <dimension ref="A1:E23"/>
   <sheetViews>
@@ -4131,7 +4790,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{373050F8-72D0-4C2F-8B80-26C88CE91628}">
   <dimension ref="A1:E23"/>
   <sheetViews>
@@ -4462,7 +5121,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E153650-B0E8-466D-8F31-78659B503768}">
   <dimension ref="A1:E23"/>
   <sheetViews>
@@ -4793,7 +5452,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{552CD9C1-2030-4328-9D69-E157E8DC4B84}">
   <dimension ref="A1:E23"/>
   <sheetViews>
@@ -5124,7 +5783,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DC193AA-68B5-4D75-8672-E97855DF0173}">
   <dimension ref="A1:E23"/>
   <sheetViews>
@@ -5453,335 +6112,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30DD628C-CC42-43B0-A721-1E91130D13A5}">
-  <dimension ref="A1:E23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="19.44140625" customWidth="1"/>
-    <col min="3" max="3" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.44140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="9">
-        <v>45800</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1">
-        <v>1176.3599999999999</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E2" s="8">
-        <f>(E1-E13)/E13</f>
-        <v>-1.6232218570460942E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
-        <v>4</v>
-      </c>
-      <c r="B4" s="7">
-        <v>1841230</v>
-      </c>
-      <c r="C4" s="7">
-        <v>-662540</v>
-      </c>
-      <c r="D4" s="5">
-        <f>C4/B4</f>
-        <v>-0.35983554471738999</v>
-      </c>
-      <c r="E4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
-        <v>3</v>
-      </c>
-      <c r="B5" s="7">
-        <v>2409900</v>
-      </c>
-      <c r="C5" s="7">
-        <v>-1468730</v>
-      </c>
-      <c r="D5" s="5">
-        <f>C5/B5</f>
-        <v>-0.6094568239346031</v>
-      </c>
-      <c r="E5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
-        <v>1</v>
-      </c>
-      <c r="B6" s="7">
-        <v>1977200</v>
-      </c>
-      <c r="C6" s="7">
-        <v>-1316200</v>
-      </c>
-      <c r="D6" s="5">
-        <f>C6/B6</f>
-        <v>-0.66568885292332591</v>
-      </c>
-      <c r="E6">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="4"/>
-      <c r="B7" s="6">
-        <f>SUM(B4:B6)</f>
-        <v>6228330</v>
-      </c>
-      <c r="C7" s="6">
-        <f>SUM(C4:C6)</f>
-        <v>-3447470</v>
-      </c>
-      <c r="D7" s="5">
-        <f>C7/B7</f>
-        <v>-0.55351434493676477</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B8" s="6"/>
-      <c r="C8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="5"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="4">
-        <v>2</v>
-      </c>
-      <c r="B9" s="7">
-        <v>4971598</v>
-      </c>
-      <c r="C9" s="7">
-        <v>-1731098</v>
-      </c>
-      <c r="D9" s="5">
-        <f>C9/B9</f>
-        <v>-0.34819750108516417</v>
-      </c>
-      <c r="E9">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B10" s="7"/>
-      <c r="C10" s="7">
-        <v>271302.75</v>
-      </c>
-      <c r="D10" s="5">
-        <f>C10/B9</f>
-        <v>5.4570532452543424E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="6">
-        <f>B7+B9</f>
-        <v>11199928</v>
-      </c>
-      <c r="C11" s="6">
-        <f>C7+C9</f>
-        <v>-5178568</v>
-      </c>
-      <c r="D11" s="5">
-        <f>C11/B11</f>
-        <v>-0.46237511526859815</v>
-      </c>
-      <c r="E11">
-        <f>E4+E5+E6+E9</f>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="9">
-        <v>45793</v>
-      </c>
-      <c r="D13" t="s">
-        <v>1</v>
-      </c>
-      <c r="E13">
-        <v>1195.77</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E14" s="8">
-        <v>-1.2527458007828689E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="4">
-        <v>4</v>
-      </c>
-      <c r="B16" s="7">
-        <v>1841230</v>
-      </c>
-      <c r="C16" s="7">
-        <v>-679870</v>
-      </c>
-      <c r="D16" s="5">
-        <v>-0.36924773113625131</v>
-      </c>
-      <c r="E16">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="4">
-        <v>3</v>
-      </c>
-      <c r="B17" s="7">
-        <v>2380500</v>
-      </c>
-      <c r="C17" s="7">
-        <v>-1443820</v>
-      </c>
-      <c r="D17" s="5">
-        <v>-0.60651963873135895</v>
-      </c>
-      <c r="E17">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="4">
-        <v>1</v>
-      </c>
-      <c r="B18" s="7">
-        <v>1977200</v>
-      </c>
-      <c r="C18" s="7">
-        <v>-1312520</v>
-      </c>
-      <c r="D18" s="5">
-        <v>-0.66382763503944975</v>
-      </c>
-      <c r="E18">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="4"/>
-      <c r="B19" s="6">
-        <v>6198930</v>
-      </c>
-      <c r="C19" s="6">
-        <v>-3436210</v>
-      </c>
-      <c r="D19" s="5">
-        <v>-0.55432308479043968</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B20" s="6"/>
-      <c r="C20" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" s="5"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="4">
-        <v>2</v>
-      </c>
-      <c r="B21" s="7">
-        <v>4971598</v>
-      </c>
-      <c r="C21" s="7">
-        <v>-1727818</v>
-      </c>
-      <c r="D21" s="5">
-        <v>-0.34753775345472421</v>
-      </c>
-      <c r="E21">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B22" s="7"/>
-      <c r="C22" s="7">
-        <v>271302.75</v>
-      </c>
-      <c r="D22" s="5">
-        <v>5.4570532452543424E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B23" s="6">
-        <v>11170528</v>
-      </c>
-      <c r="C23" s="6">
-        <v>-5164028</v>
-      </c>
-      <c r="D23" s="5">
-        <v>-0.46229041277189403</v>
-      </c>
-      <c r="E23">
-        <v>28</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Excel/04-Amt-by-period.xlsx
+++ b/Excel/04-Amt-by-period.xlsx
@@ -1,35 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c8862359375ebd62/A5/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="224" documentId="11_4407D90E547F242EEA22E4B75BC69E7FC8C566A2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AED24CA4-29B0-4E9D-A6E5-FD486EF0AB8A}"/>
+  <xr:revisionPtr revIDLastSave="236" documentId="11_4407D90E547F242EEA22E4B75BC69E7FC8C566A2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D92BAA54-409E-43D6-B025-3594E87B7656}"/>
   <bookViews>
-    <workbookView xWindow="14256" yWindow="1644" windowWidth="8832" windowHeight="10032" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14352" yWindow="1344" windowWidth="8880" windowHeight="11544" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="250905" sheetId="17" r:id="rId1"/>
-    <sheet name="250815" sheetId="16" r:id="rId2"/>
-    <sheet name="250808" sheetId="15" r:id="rId3"/>
-    <sheet name="250718" sheetId="14" r:id="rId4"/>
-    <sheet name="250704" sheetId="13" r:id="rId5"/>
-    <sheet name="250627" sheetId="12" r:id="rId6"/>
-    <sheet name="250620" sheetId="11" r:id="rId7"/>
-    <sheet name="250613" sheetId="10" r:id="rId8"/>
-    <sheet name="250530" sheetId="9" r:id="rId9"/>
-    <sheet name="250523" sheetId="8" r:id="rId10"/>
-    <sheet name="250516" sheetId="7" r:id="rId11"/>
-    <sheet name="250509" sheetId="6" r:id="rId12"/>
-    <sheet name="250502" sheetId="5" r:id="rId13"/>
-    <sheet name="250411" sheetId="4" r:id="rId14"/>
-    <sheet name="250221" sheetId="3" r:id="rId15"/>
-    <sheet name="250131" sheetId="2" r:id="rId16"/>
-    <sheet name="1230" sheetId="1" r:id="rId17"/>
+    <sheet name="250912" sheetId="18" r:id="rId1"/>
+    <sheet name="250905" sheetId="17" r:id="rId2"/>
+    <sheet name="250815" sheetId="16" r:id="rId3"/>
+    <sheet name="250808" sheetId="15" r:id="rId4"/>
+    <sheet name="250718" sheetId="14" r:id="rId5"/>
+    <sheet name="250704" sheetId="13" r:id="rId6"/>
+    <sheet name="250627" sheetId="12" r:id="rId7"/>
+    <sheet name="250620" sheetId="11" r:id="rId8"/>
+    <sheet name="250613" sheetId="10" r:id="rId9"/>
+    <sheet name="250530" sheetId="9" r:id="rId10"/>
+    <sheet name="250523" sheetId="8" r:id="rId11"/>
+    <sheet name="250516" sheetId="7" r:id="rId12"/>
+    <sheet name="250509" sheetId="6" r:id="rId13"/>
+    <sheet name="250502" sheetId="5" r:id="rId14"/>
+    <sheet name="250411" sheetId="4" r:id="rId15"/>
+    <sheet name="250221" sheetId="3" r:id="rId16"/>
+    <sheet name="250131" sheetId="2" r:id="rId17"/>
+    <sheet name="1230" sheetId="1" r:id="rId18"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -71,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="9">
   <si>
     <t>As end of</t>
   </si>
@@ -187,6 +188,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -485,11 +490,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{376E0E9D-AFC7-48C4-8BA4-CDBEFA563129}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{699E09FF-5543-4627-B869-059368E93B21}">
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -504,19 +509,19 @@
         <v>0</v>
       </c>
       <c r="C1" s="9">
-        <v>45905</v>
+        <v>45912</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
       </c>
       <c r="E1">
-        <v>1264.8</v>
+        <v>1293.6199999999999</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E2" s="8">
         <f>(E1-E13)/E13</f>
-        <v>4.2718076574930373E-3</v>
+        <v>2.2786211258696978E-2</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -541,14 +546,14 @@
         <v>4</v>
       </c>
       <c r="B4" s="7">
-        <v>420640</v>
+        <v>300140</v>
       </c>
       <c r="C4" s="7">
-        <v>-211280</v>
+        <v>-200500</v>
       </c>
       <c r="D4" s="5">
         <f>C4/B4</f>
-        <v>-0.50228223659186</v>
+        <v>-0.66802158992470184</v>
       </c>
       <c r="E4">
         <v>4</v>
@@ -562,11 +567,11 @@
         <v>3588400</v>
       </c>
       <c r="C5" s="7">
-        <v>-1320030</v>
+        <v>-1226640</v>
       </c>
       <c r="D5" s="5">
         <f>C5/B5</f>
-        <v>-0.36786032772266192</v>
+        <v>-0.34183480102552671</v>
       </c>
       <c r="E5">
         <v>7</v>
@@ -580,11 +585,11 @@
         <v>1543740</v>
       </c>
       <c r="C6" s="7">
-        <v>-984800</v>
+        <v>-952600</v>
       </c>
       <c r="D6" s="5">
         <f>C6/B6</f>
-        <v>-0.63793125785430194</v>
+        <v>-0.61707282314379364</v>
       </c>
       <c r="E6">
         <v>7</v>
@@ -594,15 +599,15 @@
       <c r="A7" s="4"/>
       <c r="B7" s="6">
         <f>SUM(B4:B6)</f>
-        <v>5552780</v>
+        <v>5432280</v>
       </c>
       <c r="C7" s="6">
         <f>SUM(C4:C6)</f>
-        <v>-2516110</v>
+        <v>-2379740</v>
       </c>
       <c r="D7" s="5">
         <f>C7/B7</f>
-        <v>-0.45312618184044751</v>
+        <v>-0.43807388426222504</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -620,11 +625,11 @@
         <v>5128200</v>
       </c>
       <c r="C9" s="7">
-        <v>-1791305</v>
+        <v>-1671190</v>
       </c>
       <c r="D9" s="5">
         <f>C9/B9</f>
-        <v>-0.34930482430482429</v>
+        <v>-0.3258823758823759</v>
       </c>
       <c r="E9">
         <v>11</v>
@@ -646,15 +651,15 @@
       </c>
       <c r="B11" s="6">
         <f>B7+B9</f>
-        <v>10680980</v>
+        <v>10560480</v>
       </c>
       <c r="C11" s="6">
         <f>C7+C9</f>
-        <v>-4307415</v>
+        <v>-4050930</v>
       </c>
       <c r="D11" s="5">
         <f>C11/B11</f>
-        <v>-0.40327900623351043</v>
+        <v>-0.38359335939275485</v>
       </c>
       <c r="E11">
         <f>E4+E5+E6+E9</f>
@@ -666,18 +671,18 @@
         <v>0</v>
       </c>
       <c r="C13" s="9">
-        <v>45884</v>
+        <v>45905</v>
       </c>
       <c r="D13" t="s">
         <v>1</v>
       </c>
       <c r="E13">
-        <v>1259.42</v>
+        <v>1264.8</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E14" s="8">
-        <v>2.7798295567374047E-4</v>
+        <v>4.2718076574930373E-3</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -702,16 +707,16 @@
         <v>4</v>
       </c>
       <c r="B16" s="7">
-        <v>300140</v>
+        <v>420640</v>
       </c>
       <c r="C16" s="7">
-        <v>-211740</v>
+        <v>-211280</v>
       </c>
       <c r="D16" s="5">
-        <v>-0.70547078030252552</v>
+        <v>-0.50228223659186</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -719,13 +724,13 @@
         <v>3</v>
       </c>
       <c r="B17" s="7">
-        <v>3504400</v>
+        <v>3588400</v>
       </c>
       <c r="C17" s="7">
-        <v>-1336730</v>
+        <v>-1320030</v>
       </c>
       <c r="D17" s="5">
-        <v>-0.38144332838717043</v>
+        <v>-0.36786032772266192</v>
       </c>
       <c r="E17">
         <v>7</v>
@@ -739,10 +744,10 @@
         <v>1543740</v>
       </c>
       <c r="C18" s="7">
-        <v>-1054720</v>
+        <v>-984800</v>
       </c>
       <c r="D18" s="5">
-        <v>-0.68322385893997695</v>
+        <v>-0.63793125785430194</v>
       </c>
       <c r="E18">
         <v>7</v>
@@ -751,13 +756,13 @@
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="6">
-        <v>5348280</v>
+        <v>5552780</v>
       </c>
       <c r="C19" s="6">
-        <v>-2603190</v>
+        <v>-2516110</v>
       </c>
       <c r="D19" s="5">
-        <v>-0.4867340528169804</v>
+        <v>-0.45312618184044751</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -772,13 +777,13 @@
         <v>2</v>
       </c>
       <c r="B21" s="7">
-        <v>5138100</v>
+        <v>5128200</v>
       </c>
       <c r="C21" s="7">
-        <v>-1748790</v>
+        <v>-1791305</v>
       </c>
       <c r="D21" s="5">
-        <v>-0.34035733053074091</v>
+        <v>-0.34930482430482429</v>
       </c>
       <c r="E21">
         <v>11</v>
@@ -787,10 +792,10 @@
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B22" s="7"/>
       <c r="C22" s="7">
-        <v>299817.7</v>
+        <v>295995.7</v>
       </c>
       <c r="D22" s="5">
-        <v>5.8351861583075461E-2</v>
+        <v>5.7719219219219221E-2</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -798,16 +803,16 @@
         <v>8</v>
       </c>
       <c r="B23" s="6">
-        <v>10486380</v>
+        <v>10680980</v>
       </c>
       <c r="C23" s="6">
-        <v>-4351980</v>
+        <v>-4307415</v>
       </c>
       <c r="D23" s="5">
-        <v>-0.41501261636522802</v>
+        <v>-0.40327900623351043</v>
       </c>
       <c r="E23">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -816,6 +821,337 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DC193AA-68B5-4D75-8672-E97855DF0173}">
+  <dimension ref="A1:E23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="19.44140625" customWidth="1"/>
+    <col min="3" max="3" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="9">
+        <v>45807</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1">
+        <v>1149.18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E2" s="8">
+        <f>(E1-E13)/E13</f>
+        <v>-2.3105171886157162E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
+        <v>4</v>
+      </c>
+      <c r="B4" s="7">
+        <v>1841230</v>
+      </c>
+      <c r="C4" s="7">
+        <v>-683180</v>
+      </c>
+      <c r="D4" s="5">
+        <f>C4/B4</f>
+        <v>-0.37104544244879784</v>
+      </c>
+      <c r="E4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <v>3</v>
+      </c>
+      <c r="B5" s="7">
+        <v>2409900</v>
+      </c>
+      <c r="C5" s="7">
+        <v>-1440450</v>
+      </c>
+      <c r="D5" s="5">
+        <f>C5/B5</f>
+        <v>-0.59772189717415658</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>1</v>
+      </c>
+      <c r="B6" s="7">
+        <v>1977200</v>
+      </c>
+      <c r="C6" s="7">
+        <v>-1316320</v>
+      </c>
+      <c r="D6" s="5">
+        <f>C6/B6</f>
+        <v>-0.66574954481084359</v>
+      </c>
+      <c r="E6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="4"/>
+      <c r="B7" s="6">
+        <f>SUM(B4:B6)</f>
+        <v>6228330</v>
+      </c>
+      <c r="C7" s="6">
+        <f>SUM(C4:C6)</f>
+        <v>-3439950</v>
+      </c>
+      <c r="D7" s="5">
+        <f>C7/B7</f>
+        <v>-0.55230695868716018</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B8" s="6"/>
+      <c r="C8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <v>2</v>
+      </c>
+      <c r="B9" s="7">
+        <v>4971598</v>
+      </c>
+      <c r="C9" s="7">
+        <v>-1743778</v>
+      </c>
+      <c r="D9" s="5">
+        <f>C9/B9</f>
+        <v>-0.35074798887601127</v>
+      </c>
+      <c r="E9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B10" s="7"/>
+      <c r="C10" s="7">
+        <v>271302.75</v>
+      </c>
+      <c r="D10" s="5">
+        <f>C10/B9</f>
+        <v>5.4570532452543424E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="6">
+        <f>B7+B9</f>
+        <v>11199928</v>
+      </c>
+      <c r="C11" s="6">
+        <f>C7+C9</f>
+        <v>-5183728</v>
+      </c>
+      <c r="D11" s="5">
+        <f>C11/B11</f>
+        <v>-0.46283583251606619</v>
+      </c>
+      <c r="E11">
+        <f>E4+E5+E6+E9</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="9">
+        <v>45800</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1176.3599999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E14" s="8">
+        <v>-1.6232218570460942E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
+        <v>4</v>
+      </c>
+      <c r="B16" s="7">
+        <v>1841230</v>
+      </c>
+      <c r="C16" s="7">
+        <v>-662540</v>
+      </c>
+      <c r="D16" s="5">
+        <v>-0.35983554471738999</v>
+      </c>
+      <c r="E16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="4">
+        <v>3</v>
+      </c>
+      <c r="B17" s="7">
+        <v>2409900</v>
+      </c>
+      <c r="C17" s="7">
+        <v>-1468730</v>
+      </c>
+      <c r="D17" s="5">
+        <v>-0.6094568239346031</v>
+      </c>
+      <c r="E17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="4">
+        <v>1</v>
+      </c>
+      <c r="B18" s="7">
+        <v>1977200</v>
+      </c>
+      <c r="C18" s="7">
+        <v>-1316200</v>
+      </c>
+      <c r="D18" s="5">
+        <v>-0.66568885292332591</v>
+      </c>
+      <c r="E18">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="4"/>
+      <c r="B19" s="6">
+        <v>6228330</v>
+      </c>
+      <c r="C19" s="6">
+        <v>-3447470</v>
+      </c>
+      <c r="D19" s="5">
+        <v>-0.55351434493676477</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B20" s="6"/>
+      <c r="C20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="5"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="4">
+        <v>2</v>
+      </c>
+      <c r="B21" s="7">
+        <v>4971598</v>
+      </c>
+      <c r="C21" s="7">
+        <v>-1731098</v>
+      </c>
+      <c r="D21" s="5">
+        <v>-0.34819750108516417</v>
+      </c>
+      <c r="E21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B22" s="7"/>
+      <c r="C22" s="7">
+        <v>271302.75</v>
+      </c>
+      <c r="D22" s="5">
+        <v>5.4570532452543424E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="6">
+        <v>11199928</v>
+      </c>
+      <c r="C23" s="6">
+        <v>-5178568</v>
+      </c>
+      <c r="D23" s="5">
+        <v>-0.46237511526859815</v>
+      </c>
+      <c r="E23">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30DD628C-CC42-43B0-A721-1E91130D13A5}">
   <dimension ref="A1:E23"/>
   <sheetViews>
@@ -1146,7 +1482,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D397C17-7D11-44D9-80F7-712E06707A25}">
   <dimension ref="A1:E23"/>
   <sheetViews>
@@ -1477,7 +1813,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E4B6815-B29A-446B-B4C9-96F02B6A5E9D}">
   <dimension ref="A1:E23"/>
   <sheetViews>
@@ -1808,7 +2144,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CEBF241-CA72-4CB5-8C3F-136F3E8408B6}">
   <dimension ref="A1:E23"/>
   <sheetViews>
@@ -2139,7 +2475,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37D4DEBF-7012-4D3C-9A89-43C32C47B6EC}">
   <dimension ref="A1:E23"/>
   <sheetViews>
@@ -2470,7 +2806,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9C4D270-1B52-4C5B-9E28-60314EA92662}">
   <dimension ref="A1:E23"/>
   <sheetViews>
@@ -2801,7 +3137,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC4C31B2-332E-43CB-8F48-59EA1BD2A5D3}">
   <dimension ref="A1:E23"/>
   <sheetViews>
@@ -3132,7 +3468,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E23"/>
   <sheetViews>
@@ -3467,6 +3803,337 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{376E0E9D-AFC7-48C4-8BA4-CDBEFA563129}">
+  <dimension ref="A1:E23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="19.44140625" customWidth="1"/>
+    <col min="3" max="3" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="9">
+        <v>45905</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1">
+        <v>1264.8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E2" s="8">
+        <f>(E1-E13)/E13</f>
+        <v>4.2718076574930373E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
+        <v>4</v>
+      </c>
+      <c r="B4" s="7">
+        <v>420640</v>
+      </c>
+      <c r="C4" s="7">
+        <v>-211280</v>
+      </c>
+      <c r="D4" s="5">
+        <f>C4/B4</f>
+        <v>-0.50228223659186</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <v>3</v>
+      </c>
+      <c r="B5" s="7">
+        <v>3588400</v>
+      </c>
+      <c r="C5" s="7">
+        <v>-1320030</v>
+      </c>
+      <c r="D5" s="5">
+        <f>C5/B5</f>
+        <v>-0.36786032772266192</v>
+      </c>
+      <c r="E5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>1</v>
+      </c>
+      <c r="B6" s="7">
+        <v>1543740</v>
+      </c>
+      <c r="C6" s="7">
+        <v>-984800</v>
+      </c>
+      <c r="D6" s="5">
+        <f>C6/B6</f>
+        <v>-0.63793125785430194</v>
+      </c>
+      <c r="E6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="4"/>
+      <c r="B7" s="6">
+        <f>SUM(B4:B6)</f>
+        <v>5552780</v>
+      </c>
+      <c r="C7" s="6">
+        <f>SUM(C4:C6)</f>
+        <v>-2516110</v>
+      </c>
+      <c r="D7" s="5">
+        <f>C7/B7</f>
+        <v>-0.45312618184044751</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B8" s="6"/>
+      <c r="C8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <v>2</v>
+      </c>
+      <c r="B9" s="7">
+        <v>5128200</v>
+      </c>
+      <c r="C9" s="7">
+        <v>-1791305</v>
+      </c>
+      <c r="D9" s="5">
+        <f>C9/B9</f>
+        <v>-0.34930482430482429</v>
+      </c>
+      <c r="E9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B10" s="7"/>
+      <c r="C10" s="7">
+        <v>295995.7</v>
+      </c>
+      <c r="D10" s="5">
+        <f>C10/B9</f>
+        <v>5.7719219219219221E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="6">
+        <f>B7+B9</f>
+        <v>10680980</v>
+      </c>
+      <c r="C11" s="6">
+        <f>C7+C9</f>
+        <v>-4307415</v>
+      </c>
+      <c r="D11" s="5">
+        <f>C11/B11</f>
+        <v>-0.40327900623351043</v>
+      </c>
+      <c r="E11">
+        <f>E4+E5+E6+E9</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="9">
+        <v>45884</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1259.42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E14" s="8">
+        <v>2.7798295567374047E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
+        <v>4</v>
+      </c>
+      <c r="B16" s="7">
+        <v>300140</v>
+      </c>
+      <c r="C16" s="7">
+        <v>-211740</v>
+      </c>
+      <c r="D16" s="5">
+        <v>-0.70547078030252552</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="4">
+        <v>3</v>
+      </c>
+      <c r="B17" s="7">
+        <v>3504400</v>
+      </c>
+      <c r="C17" s="7">
+        <v>-1336730</v>
+      </c>
+      <c r="D17" s="5">
+        <v>-0.38144332838717043</v>
+      </c>
+      <c r="E17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="4">
+        <v>1</v>
+      </c>
+      <c r="B18" s="7">
+        <v>1543740</v>
+      </c>
+      <c r="C18" s="7">
+        <v>-1054720</v>
+      </c>
+      <c r="D18" s="5">
+        <v>-0.68322385893997695</v>
+      </c>
+      <c r="E18">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="4"/>
+      <c r="B19" s="6">
+        <v>5348280</v>
+      </c>
+      <c r="C19" s="6">
+        <v>-2603190</v>
+      </c>
+      <c r="D19" s="5">
+        <v>-0.4867340528169804</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B20" s="6"/>
+      <c r="C20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="5"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="4">
+        <v>2</v>
+      </c>
+      <c r="B21" s="7">
+        <v>5138100</v>
+      </c>
+      <c r="C21" s="7">
+        <v>-1748790</v>
+      </c>
+      <c r="D21" s="5">
+        <v>-0.34035733053074091</v>
+      </c>
+      <c r="E21">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B22" s="7"/>
+      <c r="C22" s="7">
+        <v>299817.7</v>
+      </c>
+      <c r="D22" s="5">
+        <v>5.8351861583075461E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="6">
+        <v>10486380</v>
+      </c>
+      <c r="C23" s="6">
+        <v>-4351980</v>
+      </c>
+      <c r="D23" s="5">
+        <v>-0.41501261636522802</v>
+      </c>
+      <c r="E23">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E6F400C-8AD0-4837-BB77-C3C717B678B6}">
   <dimension ref="A1:E23"/>
   <sheetViews>
@@ -3797,7 +4464,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F32CB65-9456-4E75-B848-3BAB2F7365C7}">
   <dimension ref="A1:E23"/>
   <sheetViews>
@@ -4128,7 +4795,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C9EF463-2F30-449E-9ACA-B3134C3C5447}">
   <dimension ref="A1:E23"/>
   <sheetViews>
@@ -4459,7 +5126,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DA7DE61-BBCF-4D9C-9297-1085B1D8263C}">
   <dimension ref="A1:E23"/>
   <sheetViews>
@@ -4790,7 +5457,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{373050F8-72D0-4C2F-8B80-26C88CE91628}">
   <dimension ref="A1:E23"/>
   <sheetViews>
@@ -5121,7 +5788,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E153650-B0E8-466D-8F31-78659B503768}">
   <dimension ref="A1:E23"/>
   <sheetViews>
@@ -5452,7 +6119,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{552CD9C1-2030-4328-9D69-E157E8DC4B84}">
   <dimension ref="A1:E23"/>
   <sheetViews>
@@ -5781,335 +6448,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DC193AA-68B5-4D75-8672-E97855DF0173}">
-  <dimension ref="A1:E23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="19.44140625" customWidth="1"/>
-    <col min="3" max="3" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.44140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="9">
-        <v>45807</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1">
-        <v>1149.18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E2" s="8">
-        <f>(E1-E13)/E13</f>
-        <v>-2.3105171886157162E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
-        <v>4</v>
-      </c>
-      <c r="B4" s="7">
-        <v>1841230</v>
-      </c>
-      <c r="C4" s="7">
-        <v>-683180</v>
-      </c>
-      <c r="D4" s="5">
-        <f>C4/B4</f>
-        <v>-0.37104544244879784</v>
-      </c>
-      <c r="E4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
-        <v>3</v>
-      </c>
-      <c r="B5" s="7">
-        <v>2409900</v>
-      </c>
-      <c r="C5" s="7">
-        <v>-1440450</v>
-      </c>
-      <c r="D5" s="5">
-        <f>C5/B5</f>
-        <v>-0.59772189717415658</v>
-      </c>
-      <c r="E5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
-        <v>1</v>
-      </c>
-      <c r="B6" s="7">
-        <v>1977200</v>
-      </c>
-      <c r="C6" s="7">
-        <v>-1316320</v>
-      </c>
-      <c r="D6" s="5">
-        <f>C6/B6</f>
-        <v>-0.66574954481084359</v>
-      </c>
-      <c r="E6">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="4"/>
-      <c r="B7" s="6">
-        <f>SUM(B4:B6)</f>
-        <v>6228330</v>
-      </c>
-      <c r="C7" s="6">
-        <f>SUM(C4:C6)</f>
-        <v>-3439950</v>
-      </c>
-      <c r="D7" s="5">
-        <f>C7/B7</f>
-        <v>-0.55230695868716018</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B8" s="6"/>
-      <c r="C8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="5"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="4">
-        <v>2</v>
-      </c>
-      <c r="B9" s="7">
-        <v>4971598</v>
-      </c>
-      <c r="C9" s="7">
-        <v>-1743778</v>
-      </c>
-      <c r="D9" s="5">
-        <f>C9/B9</f>
-        <v>-0.35074798887601127</v>
-      </c>
-      <c r="E9">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B10" s="7"/>
-      <c r="C10" s="7">
-        <v>271302.75</v>
-      </c>
-      <c r="D10" s="5">
-        <f>C10/B9</f>
-        <v>5.4570532452543424E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="6">
-        <f>B7+B9</f>
-        <v>11199928</v>
-      </c>
-      <c r="C11" s="6">
-        <f>C7+C9</f>
-        <v>-5183728</v>
-      </c>
-      <c r="D11" s="5">
-        <f>C11/B11</f>
-        <v>-0.46283583251606619</v>
-      </c>
-      <c r="E11">
-        <f>E4+E5+E6+E9</f>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="9">
-        <v>45800</v>
-      </c>
-      <c r="D13" t="s">
-        <v>1</v>
-      </c>
-      <c r="E13">
-        <v>1176.3599999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E14" s="8">
-        <v>-1.6232218570460942E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="4">
-        <v>4</v>
-      </c>
-      <c r="B16" s="7">
-        <v>1841230</v>
-      </c>
-      <c r="C16" s="7">
-        <v>-662540</v>
-      </c>
-      <c r="D16" s="5">
-        <v>-0.35983554471738999</v>
-      </c>
-      <c r="E16">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="4">
-        <v>3</v>
-      </c>
-      <c r="B17" s="7">
-        <v>2409900</v>
-      </c>
-      <c r="C17" s="7">
-        <v>-1468730</v>
-      </c>
-      <c r="D17" s="5">
-        <v>-0.6094568239346031</v>
-      </c>
-      <c r="E17">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="4">
-        <v>1</v>
-      </c>
-      <c r="B18" s="7">
-        <v>1977200</v>
-      </c>
-      <c r="C18" s="7">
-        <v>-1316200</v>
-      </c>
-      <c r="D18" s="5">
-        <v>-0.66568885292332591</v>
-      </c>
-      <c r="E18">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="4"/>
-      <c r="B19" s="6">
-        <v>6228330</v>
-      </c>
-      <c r="C19" s="6">
-        <v>-3447470</v>
-      </c>
-      <c r="D19" s="5">
-        <v>-0.55351434493676477</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B20" s="6"/>
-      <c r="C20" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" s="5"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="4">
-        <v>2</v>
-      </c>
-      <c r="B21" s="7">
-        <v>4971598</v>
-      </c>
-      <c r="C21" s="7">
-        <v>-1731098</v>
-      </c>
-      <c r="D21" s="5">
-        <v>-0.34819750108516417</v>
-      </c>
-      <c r="E21">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B22" s="7"/>
-      <c r="C22" s="7">
-        <v>271302.75</v>
-      </c>
-      <c r="D22" s="5">
-        <v>5.4570532452543424E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B23" s="6">
-        <v>11199928</v>
-      </c>
-      <c r="C23" s="6">
-        <v>-5178568</v>
-      </c>
-      <c r="D23" s="5">
-        <v>-0.46237511526859815</v>
-      </c>
-      <c r="E23">
-        <v>28</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Excel/04-Amt-by-period.xlsx
+++ b/Excel/04-Amt-by-period.xlsx
@@ -8,29 +8,31 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c8862359375ebd62/A5/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="236" documentId="11_4407D90E547F242EEA22E4B75BC69E7FC8C566A2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D92BAA54-409E-43D6-B025-3594E87B7656}"/>
+  <xr:revisionPtr revIDLastSave="262" documentId="11_4407D90E547F242EEA22E4B75BC69E7FC8C566A2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6F9DCE93-49FB-48A4-A1BD-422ACFDFDCBF}"/>
   <bookViews>
-    <workbookView xWindow="14352" yWindow="1344" windowWidth="8880" windowHeight="11544" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14616" yWindow="1608" windowWidth="8736" windowHeight="10404" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="250912" sheetId="18" r:id="rId1"/>
-    <sheet name="250905" sheetId="17" r:id="rId2"/>
-    <sheet name="250815" sheetId="16" r:id="rId3"/>
-    <sheet name="250808" sheetId="15" r:id="rId4"/>
-    <sheet name="250718" sheetId="14" r:id="rId5"/>
-    <sheet name="250704" sheetId="13" r:id="rId6"/>
-    <sheet name="250627" sheetId="12" r:id="rId7"/>
-    <sheet name="250620" sheetId="11" r:id="rId8"/>
-    <sheet name="250613" sheetId="10" r:id="rId9"/>
-    <sheet name="250530" sheetId="9" r:id="rId10"/>
-    <sheet name="250523" sheetId="8" r:id="rId11"/>
-    <sheet name="250516" sheetId="7" r:id="rId12"/>
-    <sheet name="250509" sheetId="6" r:id="rId13"/>
-    <sheet name="250502" sheetId="5" r:id="rId14"/>
-    <sheet name="250411" sheetId="4" r:id="rId15"/>
-    <sheet name="250221" sheetId="3" r:id="rId16"/>
-    <sheet name="250131" sheetId="2" r:id="rId17"/>
-    <sheet name="1230" sheetId="1" r:id="rId18"/>
+    <sheet name="250926" sheetId="20" r:id="rId1"/>
+    <sheet name="250919" sheetId="19" r:id="rId2"/>
+    <sheet name="250912" sheetId="18" r:id="rId3"/>
+    <sheet name="250905" sheetId="17" r:id="rId4"/>
+    <sheet name="250815" sheetId="16" r:id="rId5"/>
+    <sheet name="250808" sheetId="15" r:id="rId6"/>
+    <sheet name="250718" sheetId="14" r:id="rId7"/>
+    <sheet name="250704" sheetId="13" r:id="rId8"/>
+    <sheet name="250627" sheetId="12" r:id="rId9"/>
+    <sheet name="250620" sheetId="11" r:id="rId10"/>
+    <sheet name="250613" sheetId="10" r:id="rId11"/>
+    <sheet name="250530" sheetId="9" r:id="rId12"/>
+    <sheet name="250523" sheetId="8" r:id="rId13"/>
+    <sheet name="250516" sheetId="7" r:id="rId14"/>
+    <sheet name="250509" sheetId="6" r:id="rId15"/>
+    <sheet name="250502" sheetId="5" r:id="rId16"/>
+    <sheet name="250411" sheetId="4" r:id="rId17"/>
+    <sheet name="250221" sheetId="3" r:id="rId18"/>
+    <sheet name="250131" sheetId="2" r:id="rId19"/>
+    <sheet name="1230" sheetId="1" r:id="rId20"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -72,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="9">
   <si>
     <t>As end of</t>
   </si>
@@ -188,10 +190,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -490,7 +488,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{699E09FF-5543-4627-B869-059368E93B21}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{142E41C8-5056-4759-B54A-4980815EFEAB}">
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -509,19 +507,19 @@
         <v>0</v>
       </c>
       <c r="C1" s="9">
-        <v>45912</v>
+        <v>45926</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
       </c>
       <c r="E1">
-        <v>1293.6199999999999</v>
+        <v>1278.74</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E2" s="8">
         <f>(E1-E13)/E13</f>
-        <v>2.2786211258696978E-2</v>
+        <v>-1.0814406832105961E-2</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -546,17 +544,17 @@
         <v>4</v>
       </c>
       <c r="B4" s="7">
-        <v>300140</v>
+        <v>1752300</v>
       </c>
       <c r="C4" s="7">
-        <v>-200500</v>
+        <v>-890220</v>
       </c>
       <c r="D4" s="5">
         <f>C4/B4</f>
-        <v>-0.66802158992470184</v>
+        <v>-0.50802944701249786</v>
       </c>
       <c r="E4">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -564,14 +562,14 @@
         <v>3</v>
       </c>
       <c r="B5" s="7">
-        <v>3588400</v>
+        <v>3249040</v>
       </c>
       <c r="C5" s="7">
-        <v>-1226640</v>
+        <v>-1208130</v>
       </c>
       <c r="D5" s="5">
         <f>C5/B5</f>
-        <v>-0.34183480102552671</v>
+        <v>-0.37184214414103861</v>
       </c>
       <c r="E5">
         <v>7</v>
@@ -582,32 +580,32 @@
         <v>1</v>
       </c>
       <c r="B6" s="7">
-        <v>1543740</v>
+        <v>572540</v>
       </c>
       <c r="C6" s="7">
-        <v>-952600</v>
+        <v>-401820</v>
       </c>
       <c r="D6" s="5">
         <f>C6/B6</f>
-        <v>-0.61707282314379364</v>
+        <v>-0.70181996017745485</v>
       </c>
       <c r="E6">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="6">
         <f>SUM(B4:B6)</f>
-        <v>5432280</v>
+        <v>5573880</v>
       </c>
       <c r="C7" s="6">
         <f>SUM(C4:C6)</f>
-        <v>-2379740</v>
+        <v>-2500170</v>
       </c>
       <c r="D7" s="5">
         <f>C7/B7</f>
-        <v>-0.43807388426222504</v>
+        <v>-0.44855109905487739</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -622,14 +620,14 @@
         <v>2</v>
       </c>
       <c r="B9" s="7">
-        <v>5128200</v>
+        <v>5166700</v>
       </c>
       <c r="C9" s="7">
-        <v>-1671190</v>
+        <v>-1681725</v>
       </c>
       <c r="D9" s="5">
         <f>C9/B9</f>
-        <v>-0.3258823758823759</v>
+        <v>-0.32549306133508815</v>
       </c>
       <c r="E9">
         <v>11</v>
@@ -638,11 +636,11 @@
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B10" s="7"/>
       <c r="C10" s="7">
-        <v>295995.7</v>
+        <v>298535.7</v>
       </c>
       <c r="D10" s="5">
         <f>C10/B9</f>
-        <v>5.7719219219219221E-2</v>
+        <v>5.7780730446900345E-2</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -651,15 +649,15 @@
       </c>
       <c r="B11" s="6">
         <f>B7+B9</f>
-        <v>10560480</v>
+        <v>10740580</v>
       </c>
       <c r="C11" s="6">
         <f>C7+C9</f>
-        <v>-4050930</v>
+        <v>-4181895</v>
       </c>
       <c r="D11" s="5">
         <f>C11/B11</f>
-        <v>-0.38359335939275485</v>
+        <v>-0.38935467172163885</v>
       </c>
       <c r="E11">
         <f>E4+E5+E6+E9</f>
@@ -671,18 +669,18 @@
         <v>0</v>
       </c>
       <c r="C13" s="9">
-        <v>45905</v>
+        <v>45919</v>
       </c>
       <c r="D13" t="s">
         <v>1</v>
       </c>
       <c r="E13">
-        <v>1264.8</v>
+        <v>1292.72</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E14" s="8">
-        <v>4.2718076574930373E-3</v>
+        <v>-6.9572208221878426E-4</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -707,16 +705,16 @@
         <v>4</v>
       </c>
       <c r="B16" s="7">
-        <v>420640</v>
+        <v>1752300</v>
       </c>
       <c r="C16" s="7">
-        <v>-211280</v>
+        <v>-863680</v>
       </c>
       <c r="D16" s="5">
-        <v>-0.50228223659186</v>
+        <v>-0.49288363864635049</v>
       </c>
       <c r="E16">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -724,13 +722,13 @@
         <v>3</v>
       </c>
       <c r="B17" s="7">
-        <v>3588400</v>
+        <v>3249040</v>
       </c>
       <c r="C17" s="7">
-        <v>-1320030</v>
+        <v>-1195800</v>
       </c>
       <c r="D17" s="5">
-        <v>-0.36786032772266192</v>
+        <v>-0.36804717701228673</v>
       </c>
       <c r="E17">
         <v>7</v>
@@ -741,28 +739,28 @@
         <v>1</v>
       </c>
       <c r="B18" s="7">
-        <v>1543740</v>
+        <v>572540</v>
       </c>
       <c r="C18" s="7">
-        <v>-984800</v>
+        <v>-399520</v>
       </c>
       <c r="D18" s="5">
-        <v>-0.63793125785430194</v>
+        <v>-0.6978027736053376</v>
       </c>
       <c r="E18">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="6">
-        <v>5552780</v>
+        <v>5573880</v>
       </c>
       <c r="C19" s="6">
-        <v>-2516110</v>
+        <v>-2459000</v>
       </c>
       <c r="D19" s="5">
-        <v>-0.45312618184044751</v>
+        <v>-0.44116486181977366</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -777,13 +775,13 @@
         <v>2</v>
       </c>
       <c r="B21" s="7">
-        <v>5128200</v>
+        <v>5166700</v>
       </c>
       <c r="C21" s="7">
-        <v>-1791305</v>
+        <v>-1666195</v>
       </c>
       <c r="D21" s="5">
-        <v>-0.34930482430482429</v>
+        <v>-0.32248727427564983</v>
       </c>
       <c r="E21">
         <v>11</v>
@@ -792,10 +790,10 @@
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B22" s="7"/>
       <c r="C22" s="7">
-        <v>295995.7</v>
+        <v>298535.7</v>
       </c>
       <c r="D22" s="5">
-        <v>5.7719219219219221E-2</v>
+        <v>5.7780730446900345E-2</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -803,13 +801,13 @@
         <v>8</v>
       </c>
       <c r="B23" s="6">
-        <v>10680980</v>
+        <v>10740580</v>
       </c>
       <c r="C23" s="6">
-        <v>-4307415</v>
+        <v>-4125195</v>
       </c>
       <c r="D23" s="5">
-        <v>-0.40327900623351043</v>
+        <v>-0.38407562720076571</v>
       </c>
       <c r="E23">
         <v>29</v>
@@ -821,6 +819,668 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E153650-B0E8-466D-8F31-78659B503768}">
+  <dimension ref="A1:E23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="19.44140625" customWidth="1"/>
+    <col min="3" max="3" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="9">
+        <v>45828</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1">
+        <v>1067.6300000000001</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E2" s="8">
+        <f>(E1-E13)/E13</f>
+        <v>-4.9051393960986851E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
+        <v>4</v>
+      </c>
+      <c r="B4" s="7">
+        <v>862040</v>
+      </c>
+      <c r="C4" s="7">
+        <v>-661565</v>
+      </c>
+      <c r="D4" s="5">
+        <f>C4/B4</f>
+        <v>-0.76744118602385036</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <v>3</v>
+      </c>
+      <c r="B5" s="7">
+        <v>3591550</v>
+      </c>
+      <c r="C5" s="7">
+        <v>-1538750</v>
+      </c>
+      <c r="D5" s="5">
+        <f>C5/B5</f>
+        <v>-0.42843619050270776</v>
+      </c>
+      <c r="E5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>1</v>
+      </c>
+      <c r="B6" s="7">
+        <v>1632240</v>
+      </c>
+      <c r="C6" s="7">
+        <v>-1237390</v>
+      </c>
+      <c r="D6" s="5">
+        <f>C6/B6</f>
+        <v>-0.75809317257266084</v>
+      </c>
+      <c r="E6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="4"/>
+      <c r="B7" s="6">
+        <f>SUM(B4:B6)</f>
+        <v>6085830</v>
+      </c>
+      <c r="C7" s="6">
+        <f>SUM(C4:C6)</f>
+        <v>-3437705</v>
+      </c>
+      <c r="D7" s="5">
+        <f>C7/B7</f>
+        <v>-0.56487036279357128</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B8" s="6"/>
+      <c r="C8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <v>2</v>
+      </c>
+      <c r="B9" s="7">
+        <v>4972600</v>
+      </c>
+      <c r="C9" s="7">
+        <v>-1984215</v>
+      </c>
+      <c r="D9" s="5">
+        <f>C9/B9</f>
+        <v>-0.39902968266098221</v>
+      </c>
+      <c r="E9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B10" s="7"/>
+      <c r="C10" s="7">
+        <v>271302.75</v>
+      </c>
+      <c r="D10" s="5">
+        <f>C10/B9</f>
+        <v>5.4559536258697666E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="6">
+        <f>B7+B9</f>
+        <v>11058430</v>
+      </c>
+      <c r="C11" s="6">
+        <f>C7+C9</f>
+        <v>-5421920</v>
+      </c>
+      <c r="D11" s="5">
+        <f>C11/B11</f>
+        <v>-0.49029744728682101</v>
+      </c>
+      <c r="E11">
+        <f>E4+E5+E6+E9</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="9">
+        <v>45821</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1122.7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E14" s="8">
+        <v>-2.3042517273186111E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
+        <v>4</v>
+      </c>
+      <c r="B16" s="7">
+        <v>1063040</v>
+      </c>
+      <c r="C16" s="7">
+        <v>-805890</v>
+      </c>
+      <c r="D16" s="5" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="E16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="4">
+        <v>3</v>
+      </c>
+      <c r="B17" s="7">
+        <v>3591550</v>
+      </c>
+      <c r="C17" s="7">
+        <v>-1423200</v>
+      </c>
+      <c r="D17" s="5">
+        <v>-0.39626345171304866</v>
+      </c>
+      <c r="E17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="4">
+        <v>1</v>
+      </c>
+      <c r="B18" s="7">
+        <v>1632240</v>
+      </c>
+      <c r="C18" s="7">
+        <v>-1201240</v>
+      </c>
+      <c r="D18" s="5">
+        <v>-0.73594569426064793</v>
+      </c>
+      <c r="E18">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="4"/>
+      <c r="B19" s="6">
+        <v>6286830</v>
+      </c>
+      <c r="C19" s="6">
+        <v>-3430330</v>
+      </c>
+      <c r="D19" s="5">
+        <v>-0.54563746753133135</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B20" s="6"/>
+      <c r="C20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="5"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="4">
+        <v>2</v>
+      </c>
+      <c r="B21" s="7">
+        <v>4971598</v>
+      </c>
+      <c r="C21" s="7">
+        <v>-1870168</v>
+      </c>
+      <c r="D21" s="5">
+        <v>-0.37617039833067756</v>
+      </c>
+      <c r="E21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B22" s="7"/>
+      <c r="C22" s="7">
+        <v>271302.75</v>
+      </c>
+      <c r="D22" s="5">
+        <v>5.4570532452543424E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="6">
+        <v>11258428</v>
+      </c>
+      <c r="C23" s="6">
+        <v>-5300498</v>
+      </c>
+      <c r="D23" s="5">
+        <v>-0.47080267333947512</v>
+      </c>
+      <c r="E23">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{552CD9C1-2030-4328-9D69-E157E8DC4B84}">
+  <dimension ref="A1:E23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="19.44140625" customWidth="1"/>
+    <col min="3" max="3" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="9">
+        <v>45821</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1">
+        <v>1122.7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E2" s="8">
+        <f>(E1-E13)/E13</f>
+        <v>-2.3042517273186111E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
+        <v>4</v>
+      </c>
+      <c r="B4" s="7">
+        <v>1063040</v>
+      </c>
+      <c r="C4" s="7">
+        <v>-805890</v>
+      </c>
+      <c r="D4" s="5" t="e" cm="1">
+        <f t="array" ref="D4">B61632240=C4/B4</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <v>3</v>
+      </c>
+      <c r="B5" s="7">
+        <v>3591550</v>
+      </c>
+      <c r="C5" s="7">
+        <v>-1423200</v>
+      </c>
+      <c r="D5" s="5">
+        <f>C5/B5</f>
+        <v>-0.39626345171304866</v>
+      </c>
+      <c r="E5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>1</v>
+      </c>
+      <c r="B6" s="7">
+        <v>1632240</v>
+      </c>
+      <c r="C6" s="7">
+        <v>-1201240</v>
+      </c>
+      <c r="D6" s="5">
+        <f>C6/B6</f>
+        <v>-0.73594569426064793</v>
+      </c>
+      <c r="E6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="4"/>
+      <c r="B7" s="6">
+        <f>SUM(B4:B6)</f>
+        <v>6286830</v>
+      </c>
+      <c r="C7" s="6">
+        <f>SUM(C4:C6)</f>
+        <v>-3430330</v>
+      </c>
+      <c r="D7" s="5">
+        <f>C7/B7</f>
+        <v>-0.54563746753133135</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B8" s="6"/>
+      <c r="C8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <v>2</v>
+      </c>
+      <c r="B9" s="7">
+        <v>4971598</v>
+      </c>
+      <c r="C9" s="7">
+        <v>-1870168</v>
+      </c>
+      <c r="D9" s="5">
+        <f>C9/B9</f>
+        <v>-0.37617039833067756</v>
+      </c>
+      <c r="E9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B10" s="7"/>
+      <c r="C10" s="7">
+        <v>271302.75</v>
+      </c>
+      <c r="D10" s="5">
+        <f>C10/B9</f>
+        <v>5.4570532452543424E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="6">
+        <f>B7+B9</f>
+        <v>11258428</v>
+      </c>
+      <c r="C11" s="6">
+        <f>C7+C9</f>
+        <v>-5300498</v>
+      </c>
+      <c r="D11" s="5">
+        <f>C11/B11</f>
+        <v>-0.47080267333947512</v>
+      </c>
+      <c r="E11">
+        <f>E4+E5+E6+E9</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="9">
+        <v>45807</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1149.18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E14" s="8">
+        <v>-2.3105171886157162E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
+        <v>4</v>
+      </c>
+      <c r="B16" s="7">
+        <v>1841230</v>
+      </c>
+      <c r="C16" s="7">
+        <v>-683180</v>
+      </c>
+      <c r="D16" s="5">
+        <v>-0.37104544244879784</v>
+      </c>
+      <c r="E16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="4">
+        <v>3</v>
+      </c>
+      <c r="B17" s="7">
+        <v>2409900</v>
+      </c>
+      <c r="C17" s="7">
+        <v>-1440450</v>
+      </c>
+      <c r="D17" s="5">
+        <v>-0.59772189717415658</v>
+      </c>
+      <c r="E17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="4">
+        <v>1</v>
+      </c>
+      <c r="B18" s="7">
+        <v>1977200</v>
+      </c>
+      <c r="C18" s="7">
+        <v>-1316320</v>
+      </c>
+      <c r="D18" s="5">
+        <v>-0.66574954481084359</v>
+      </c>
+      <c r="E18">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="4"/>
+      <c r="B19" s="6">
+        <v>6228330</v>
+      </c>
+      <c r="C19" s="6">
+        <v>-3439950</v>
+      </c>
+      <c r="D19" s="5">
+        <v>-0.55230695868716018</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B20" s="6"/>
+      <c r="C20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="5"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="4">
+        <v>2</v>
+      </c>
+      <c r="B21" s="7">
+        <v>4971598</v>
+      </c>
+      <c r="C21" s="7">
+        <v>-1743778</v>
+      </c>
+      <c r="D21" s="5">
+        <v>-0.35074798887601127</v>
+      </c>
+      <c r="E21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B22" s="7"/>
+      <c r="C22" s="7">
+        <v>271302.75</v>
+      </c>
+      <c r="D22" s="5">
+        <v>5.4570532452543424E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="6">
+        <v>11199928</v>
+      </c>
+      <c r="C23" s="6">
+        <v>-5183728</v>
+      </c>
+      <c r="D23" s="5">
+        <v>-0.46283583251606619</v>
+      </c>
+      <c r="E23">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DC193AA-68B5-4D75-8672-E97855DF0173}">
   <dimension ref="A1:E23"/>
   <sheetViews>
@@ -1151,7 +1811,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30DD628C-CC42-43B0-A721-1E91130D13A5}">
   <dimension ref="A1:E23"/>
   <sheetViews>
@@ -1482,7 +2142,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D397C17-7D11-44D9-80F7-712E06707A25}">
   <dimension ref="A1:E23"/>
   <sheetViews>
@@ -1813,7 +2473,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E4B6815-B29A-446B-B4C9-96F02B6A5E9D}">
   <dimension ref="A1:E23"/>
   <sheetViews>
@@ -2144,7 +2804,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CEBF241-CA72-4CB5-8C3F-136F3E8408B6}">
   <dimension ref="A1:E23"/>
   <sheetViews>
@@ -2475,7 +3135,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37D4DEBF-7012-4D3C-9A89-43C32C47B6EC}">
   <dimension ref="A1:E23"/>
   <sheetViews>
@@ -2806,7 +3466,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9C4D270-1B52-4C5B-9E28-60314EA92662}">
   <dimension ref="A1:E23"/>
   <sheetViews>
@@ -3137,7 +3797,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC4C31B2-332E-43CB-8F48-59EA1BD2A5D3}">
   <dimension ref="A1:E23"/>
   <sheetViews>
@@ -3468,7 +4128,338 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B914B260-76A6-4468-8847-C732969CD1A1}">
+  <dimension ref="A1:E23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="19.44140625" customWidth="1"/>
+    <col min="3" max="3" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="9">
+        <v>45919</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1">
+        <v>1292.72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E2" s="8">
+        <f>(E1-E13)/E13</f>
+        <v>-6.9572208221878426E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
+        <v>4</v>
+      </c>
+      <c r="B4" s="7">
+        <v>1752300</v>
+      </c>
+      <c r="C4" s="7">
+        <v>-863680</v>
+      </c>
+      <c r="D4" s="5">
+        <f>C4/B4</f>
+        <v>-0.49288363864635049</v>
+      </c>
+      <c r="E4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <v>3</v>
+      </c>
+      <c r="B5" s="7">
+        <v>3249040</v>
+      </c>
+      <c r="C5" s="7">
+        <v>-1195800</v>
+      </c>
+      <c r="D5" s="5">
+        <f>C5/B5</f>
+        <v>-0.36804717701228673</v>
+      </c>
+      <c r="E5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>1</v>
+      </c>
+      <c r="B6" s="7">
+        <v>572540</v>
+      </c>
+      <c r="C6" s="7">
+        <v>-399520</v>
+      </c>
+      <c r="D6" s="5">
+        <f>C6/B6</f>
+        <v>-0.6978027736053376</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="4"/>
+      <c r="B7" s="6">
+        <f>SUM(B4:B6)</f>
+        <v>5573880</v>
+      </c>
+      <c r="C7" s="6">
+        <f>SUM(C4:C6)</f>
+        <v>-2459000</v>
+      </c>
+      <c r="D7" s="5">
+        <f>C7/B7</f>
+        <v>-0.44116486181977366</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B8" s="6"/>
+      <c r="C8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <v>2</v>
+      </c>
+      <c r="B9" s="7">
+        <v>5166700</v>
+      </c>
+      <c r="C9" s="7">
+        <v>-1666195</v>
+      </c>
+      <c r="D9" s="5">
+        <f>C9/B9</f>
+        <v>-0.32248727427564983</v>
+      </c>
+      <c r="E9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B10" s="7"/>
+      <c r="C10" s="7">
+        <v>298535.7</v>
+      </c>
+      <c r="D10" s="5">
+        <f>C10/B9</f>
+        <v>5.7780730446900345E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="6">
+        <f>B7+B9</f>
+        <v>10740580</v>
+      </c>
+      <c r="C11" s="6">
+        <f>C7+C9</f>
+        <v>-4125195</v>
+      </c>
+      <c r="D11" s="5">
+        <f>C11/B11</f>
+        <v>-0.38407562720076571</v>
+      </c>
+      <c r="E11">
+        <f>E4+E5+E6+E9</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="9">
+        <v>45912</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1293.6199999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E14" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
+        <v>4</v>
+      </c>
+      <c r="B16" s="7">
+        <v>300140</v>
+      </c>
+      <c r="C16" s="7">
+        <v>-200500</v>
+      </c>
+      <c r="D16" s="5">
+        <v>-0.66802158992470184</v>
+      </c>
+      <c r="E16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="4">
+        <v>3</v>
+      </c>
+      <c r="B17" s="7">
+        <v>3588400</v>
+      </c>
+      <c r="C17" s="7">
+        <v>-1226640</v>
+      </c>
+      <c r="D17" s="5">
+        <v>-0.34183480102552671</v>
+      </c>
+      <c r="E17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="4">
+        <v>1</v>
+      </c>
+      <c r="B18" s="7">
+        <v>1543740</v>
+      </c>
+      <c r="C18" s="7">
+        <v>-952600</v>
+      </c>
+      <c r="D18" s="5">
+        <v>-0.61707282314379364</v>
+      </c>
+      <c r="E18">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="4"/>
+      <c r="B19" s="6">
+        <v>5432280</v>
+      </c>
+      <c r="C19" s="6">
+        <v>-2379740</v>
+      </c>
+      <c r="D19" s="5">
+        <v>-0.43807388426222504</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B20" s="6"/>
+      <c r="C20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="5"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="4">
+        <v>2</v>
+      </c>
+      <c r="B21" s="7">
+        <v>5128200</v>
+      </c>
+      <c r="C21" s="7">
+        <v>-1671190</v>
+      </c>
+      <c r="D21" s="5">
+        <v>-0.3258823758823759</v>
+      </c>
+      <c r="E21">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B22" s="7"/>
+      <c r="C22" s="7">
+        <v>295995.7</v>
+      </c>
+      <c r="D22" s="5">
+        <v>5.7719219219219221E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="6">
+        <v>10560480</v>
+      </c>
+      <c r="C23" s="6">
+        <v>-4050930</v>
+      </c>
+      <c r="D23" s="5">
+        <v>-0.38359335939275485</v>
+      </c>
+      <c r="E23">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E23"/>
   <sheetViews>
@@ -3802,7 +4793,338 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{699E09FF-5543-4627-B869-059368E93B21}">
+  <dimension ref="A1:E23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="19.44140625" customWidth="1"/>
+    <col min="3" max="3" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="9">
+        <v>45912</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1">
+        <v>1293.6199999999999</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E2" s="8">
+        <f>(E1-E13)/E13</f>
+        <v>2.2786211258696978E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
+        <v>4</v>
+      </c>
+      <c r="B4" s="7">
+        <v>300140</v>
+      </c>
+      <c r="C4" s="7">
+        <v>-200500</v>
+      </c>
+      <c r="D4" s="5">
+        <f>C4/B4</f>
+        <v>-0.66802158992470184</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <v>3</v>
+      </c>
+      <c r="B5" s="7">
+        <v>3588400</v>
+      </c>
+      <c r="C5" s="7">
+        <v>-1226640</v>
+      </c>
+      <c r="D5" s="5">
+        <f>C5/B5</f>
+        <v>-0.34183480102552671</v>
+      </c>
+      <c r="E5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>1</v>
+      </c>
+      <c r="B6" s="7">
+        <v>1543740</v>
+      </c>
+      <c r="C6" s="7">
+        <v>-952600</v>
+      </c>
+      <c r="D6" s="5">
+        <f>C6/B6</f>
+        <v>-0.61707282314379364</v>
+      </c>
+      <c r="E6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="4"/>
+      <c r="B7" s="6">
+        <f>SUM(B4:B6)</f>
+        <v>5432280</v>
+      </c>
+      <c r="C7" s="6">
+        <f>SUM(C4:C6)</f>
+        <v>-2379740</v>
+      </c>
+      <c r="D7" s="5">
+        <f>C7/B7</f>
+        <v>-0.43807388426222504</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B8" s="6"/>
+      <c r="C8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <v>2</v>
+      </c>
+      <c r="B9" s="7">
+        <v>5128200</v>
+      </c>
+      <c r="C9" s="7">
+        <v>-1671190</v>
+      </c>
+      <c r="D9" s="5">
+        <f>C9/B9</f>
+        <v>-0.3258823758823759</v>
+      </c>
+      <c r="E9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B10" s="7"/>
+      <c r="C10" s="7">
+        <v>295995.7</v>
+      </c>
+      <c r="D10" s="5">
+        <f>C10/B9</f>
+        <v>5.7719219219219221E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="6">
+        <f>B7+B9</f>
+        <v>10560480</v>
+      </c>
+      <c r="C11" s="6">
+        <f>C7+C9</f>
+        <v>-4050930</v>
+      </c>
+      <c r="D11" s="5">
+        <f>C11/B11</f>
+        <v>-0.38359335939275485</v>
+      </c>
+      <c r="E11">
+        <f>E4+E5+E6+E9</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="9">
+        <v>45905</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1264.8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E14" s="8">
+        <v>4.2718076574930373E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
+        <v>4</v>
+      </c>
+      <c r="B16" s="7">
+        <v>420640</v>
+      </c>
+      <c r="C16" s="7">
+        <v>-211280</v>
+      </c>
+      <c r="D16" s="5">
+        <v>-0.50228223659186</v>
+      </c>
+      <c r="E16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="4">
+        <v>3</v>
+      </c>
+      <c r="B17" s="7">
+        <v>3588400</v>
+      </c>
+      <c r="C17" s="7">
+        <v>-1320030</v>
+      </c>
+      <c r="D17" s="5">
+        <v>-0.36786032772266192</v>
+      </c>
+      <c r="E17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="4">
+        <v>1</v>
+      </c>
+      <c r="B18" s="7">
+        <v>1543740</v>
+      </c>
+      <c r="C18" s="7">
+        <v>-984800</v>
+      </c>
+      <c r="D18" s="5">
+        <v>-0.63793125785430194</v>
+      </c>
+      <c r="E18">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="4"/>
+      <c r="B19" s="6">
+        <v>5552780</v>
+      </c>
+      <c r="C19" s="6">
+        <v>-2516110</v>
+      </c>
+      <c r="D19" s="5">
+        <v>-0.45312618184044751</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B20" s="6"/>
+      <c r="C20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="5"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="4">
+        <v>2</v>
+      </c>
+      <c r="B21" s="7">
+        <v>5128200</v>
+      </c>
+      <c r="C21" s="7">
+        <v>-1791305</v>
+      </c>
+      <c r="D21" s="5">
+        <v>-0.34930482430482429</v>
+      </c>
+      <c r="E21">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B22" s="7"/>
+      <c r="C22" s="7">
+        <v>295995.7</v>
+      </c>
+      <c r="D22" s="5">
+        <v>5.7719219219219221E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="6">
+        <v>10680980</v>
+      </c>
+      <c r="C23" s="6">
+        <v>-4307415</v>
+      </c>
+      <c r="D23" s="5">
+        <v>-0.40327900623351043</v>
+      </c>
+      <c r="E23">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{376E0E9D-AFC7-48C4-8BA4-CDBEFA563129}">
   <dimension ref="A1:E23"/>
   <sheetViews>
@@ -4133,7 +5455,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E6F400C-8AD0-4837-BB77-C3C717B678B6}">
   <dimension ref="A1:E23"/>
   <sheetViews>
@@ -4464,7 +5786,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F32CB65-9456-4E75-B848-3BAB2F7365C7}">
   <dimension ref="A1:E23"/>
   <sheetViews>
@@ -4795,7 +6117,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C9EF463-2F30-449E-9ACA-B3134C3C5447}">
   <dimension ref="A1:E23"/>
   <sheetViews>
@@ -5126,7 +6448,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DA7DE61-BBCF-4D9C-9297-1085B1D8263C}">
   <dimension ref="A1:E23"/>
   <sheetViews>
@@ -5457,7 +6779,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{373050F8-72D0-4C2F-8B80-26C88CE91628}">
   <dimension ref="A1:E23"/>
   <sheetViews>
@@ -5786,666 +7108,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E153650-B0E8-466D-8F31-78659B503768}">
-  <dimension ref="A1:E23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="19.44140625" customWidth="1"/>
-    <col min="3" max="3" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.44140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="9">
-        <v>45828</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1">
-        <v>1067.6300000000001</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E2" s="8">
-        <f>(E1-E13)/E13</f>
-        <v>-4.9051393960986851E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
-        <v>4</v>
-      </c>
-      <c r="B4" s="7">
-        <v>862040</v>
-      </c>
-      <c r="C4" s="7">
-        <v>-661565</v>
-      </c>
-      <c r="D4" s="5">
-        <f>C4/B4</f>
-        <v>-0.76744118602385036</v>
-      </c>
-      <c r="E4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
-        <v>3</v>
-      </c>
-      <c r="B5" s="7">
-        <v>3591550</v>
-      </c>
-      <c r="C5" s="7">
-        <v>-1538750</v>
-      </c>
-      <c r="D5" s="5">
-        <f>C5/B5</f>
-        <v>-0.42843619050270776</v>
-      </c>
-      <c r="E5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
-        <v>1</v>
-      </c>
-      <c r="B6" s="7">
-        <v>1632240</v>
-      </c>
-      <c r="C6" s="7">
-        <v>-1237390</v>
-      </c>
-      <c r="D6" s="5">
-        <f>C6/B6</f>
-        <v>-0.75809317257266084</v>
-      </c>
-      <c r="E6">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="4"/>
-      <c r="B7" s="6">
-        <f>SUM(B4:B6)</f>
-        <v>6085830</v>
-      </c>
-      <c r="C7" s="6">
-        <f>SUM(C4:C6)</f>
-        <v>-3437705</v>
-      </c>
-      <c r="D7" s="5">
-        <f>C7/B7</f>
-        <v>-0.56487036279357128</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B8" s="6"/>
-      <c r="C8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="5"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="4">
-        <v>2</v>
-      </c>
-      <c r="B9" s="7">
-        <v>4972600</v>
-      </c>
-      <c r="C9" s="7">
-        <v>-1984215</v>
-      </c>
-      <c r="D9" s="5">
-        <f>C9/B9</f>
-        <v>-0.39902968266098221</v>
-      </c>
-      <c r="E9">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B10" s="7"/>
-      <c r="C10" s="7">
-        <v>271302.75</v>
-      </c>
-      <c r="D10" s="5">
-        <f>C10/B9</f>
-        <v>5.4559536258697666E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="6">
-        <f>B7+B9</f>
-        <v>11058430</v>
-      </c>
-      <c r="C11" s="6">
-        <f>C7+C9</f>
-        <v>-5421920</v>
-      </c>
-      <c r="D11" s="5">
-        <f>C11/B11</f>
-        <v>-0.49029744728682101</v>
-      </c>
-      <c r="E11">
-        <f>E4+E5+E6+E9</f>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="9">
-        <v>45821</v>
-      </c>
-      <c r="D13" t="s">
-        <v>1</v>
-      </c>
-      <c r="E13">
-        <v>1122.7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E14" s="8">
-        <v>-2.3042517273186111E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="4">
-        <v>4</v>
-      </c>
-      <c r="B16" s="7">
-        <v>1063040</v>
-      </c>
-      <c r="C16" s="7">
-        <v>-805890</v>
-      </c>
-      <c r="D16" s="5" t="e">
-        <v>#NAME?</v>
-      </c>
-      <c r="E16">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="4">
-        <v>3</v>
-      </c>
-      <c r="B17" s="7">
-        <v>3591550</v>
-      </c>
-      <c r="C17" s="7">
-        <v>-1423200</v>
-      </c>
-      <c r="D17" s="5">
-        <v>-0.39626345171304866</v>
-      </c>
-      <c r="E17">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="4">
-        <v>1</v>
-      </c>
-      <c r="B18" s="7">
-        <v>1632240</v>
-      </c>
-      <c r="C18" s="7">
-        <v>-1201240</v>
-      </c>
-      <c r="D18" s="5">
-        <v>-0.73594569426064793</v>
-      </c>
-      <c r="E18">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="4"/>
-      <c r="B19" s="6">
-        <v>6286830</v>
-      </c>
-      <c r="C19" s="6">
-        <v>-3430330</v>
-      </c>
-      <c r="D19" s="5">
-        <v>-0.54563746753133135</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B20" s="6"/>
-      <c r="C20" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" s="5"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="4">
-        <v>2</v>
-      </c>
-      <c r="B21" s="7">
-        <v>4971598</v>
-      </c>
-      <c r="C21" s="7">
-        <v>-1870168</v>
-      </c>
-      <c r="D21" s="5">
-        <v>-0.37617039833067756</v>
-      </c>
-      <c r="E21">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B22" s="7"/>
-      <c r="C22" s="7">
-        <v>271302.75</v>
-      </c>
-      <c r="D22" s="5">
-        <v>5.4570532452543424E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B23" s="6">
-        <v>11258428</v>
-      </c>
-      <c r="C23" s="6">
-        <v>-5300498</v>
-      </c>
-      <c r="D23" s="5">
-        <v>-0.47080267333947512</v>
-      </c>
-      <c r="E23">
-        <v>28</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{552CD9C1-2030-4328-9D69-E157E8DC4B84}">
-  <dimension ref="A1:E23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="19.44140625" customWidth="1"/>
-    <col min="3" max="3" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.44140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="9">
-        <v>45821</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1">
-        <v>1122.7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E2" s="8">
-        <f>(E1-E13)/E13</f>
-        <v>-2.3042517273186111E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
-        <v>4</v>
-      </c>
-      <c r="B4" s="7">
-        <v>1063040</v>
-      </c>
-      <c r="C4" s="7">
-        <v>-805890</v>
-      </c>
-      <c r="D4" s="5" t="e" cm="1">
-        <f t="array" ref="D4">B61632240=C4/B4</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="E4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
-        <v>3</v>
-      </c>
-      <c r="B5" s="7">
-        <v>3591550</v>
-      </c>
-      <c r="C5" s="7">
-        <v>-1423200</v>
-      </c>
-      <c r="D5" s="5">
-        <f>C5/B5</f>
-        <v>-0.39626345171304866</v>
-      </c>
-      <c r="E5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
-        <v>1</v>
-      </c>
-      <c r="B6" s="7">
-        <v>1632240</v>
-      </c>
-      <c r="C6" s="7">
-        <v>-1201240</v>
-      </c>
-      <c r="D6" s="5">
-        <f>C6/B6</f>
-        <v>-0.73594569426064793</v>
-      </c>
-      <c r="E6">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="4"/>
-      <c r="B7" s="6">
-        <f>SUM(B4:B6)</f>
-        <v>6286830</v>
-      </c>
-      <c r="C7" s="6">
-        <f>SUM(C4:C6)</f>
-        <v>-3430330</v>
-      </c>
-      <c r="D7" s="5">
-        <f>C7/B7</f>
-        <v>-0.54563746753133135</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B8" s="6"/>
-      <c r="C8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="5"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="4">
-        <v>2</v>
-      </c>
-      <c r="B9" s="7">
-        <v>4971598</v>
-      </c>
-      <c r="C9" s="7">
-        <v>-1870168</v>
-      </c>
-      <c r="D9" s="5">
-        <f>C9/B9</f>
-        <v>-0.37617039833067756</v>
-      </c>
-      <c r="E9">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B10" s="7"/>
-      <c r="C10" s="7">
-        <v>271302.75</v>
-      </c>
-      <c r="D10" s="5">
-        <f>C10/B9</f>
-        <v>5.4570532452543424E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="6">
-        <f>B7+B9</f>
-        <v>11258428</v>
-      </c>
-      <c r="C11" s="6">
-        <f>C7+C9</f>
-        <v>-5300498</v>
-      </c>
-      <c r="D11" s="5">
-        <f>C11/B11</f>
-        <v>-0.47080267333947512</v>
-      </c>
-      <c r="E11">
-        <f>E4+E5+E6+E9</f>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="9">
-        <v>45807</v>
-      </c>
-      <c r="D13" t="s">
-        <v>1</v>
-      </c>
-      <c r="E13">
-        <v>1149.18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E14" s="8">
-        <v>-2.3105171886157162E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="4">
-        <v>4</v>
-      </c>
-      <c r="B16" s="7">
-        <v>1841230</v>
-      </c>
-      <c r="C16" s="7">
-        <v>-683180</v>
-      </c>
-      <c r="D16" s="5">
-        <v>-0.37104544244879784</v>
-      </c>
-      <c r="E16">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="4">
-        <v>3</v>
-      </c>
-      <c r="B17" s="7">
-        <v>2409900</v>
-      </c>
-      <c r="C17" s="7">
-        <v>-1440450</v>
-      </c>
-      <c r="D17" s="5">
-        <v>-0.59772189717415658</v>
-      </c>
-      <c r="E17">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="4">
-        <v>1</v>
-      </c>
-      <c r="B18" s="7">
-        <v>1977200</v>
-      </c>
-      <c r="C18" s="7">
-        <v>-1316320</v>
-      </c>
-      <c r="D18" s="5">
-        <v>-0.66574954481084359</v>
-      </c>
-      <c r="E18">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="4"/>
-      <c r="B19" s="6">
-        <v>6228330</v>
-      </c>
-      <c r="C19" s="6">
-        <v>-3439950</v>
-      </c>
-      <c r="D19" s="5">
-        <v>-0.55230695868716018</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B20" s="6"/>
-      <c r="C20" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" s="5"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="4">
-        <v>2</v>
-      </c>
-      <c r="B21" s="7">
-        <v>4971598</v>
-      </c>
-      <c r="C21" s="7">
-        <v>-1743778</v>
-      </c>
-      <c r="D21" s="5">
-        <v>-0.35074798887601127</v>
-      </c>
-      <c r="E21">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B22" s="7"/>
-      <c r="C22" s="7">
-        <v>271302.75</v>
-      </c>
-      <c r="D22" s="5">
-        <v>5.4570532452543424E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B23" s="6">
-        <v>11199928</v>
-      </c>
-      <c r="C23" s="6">
-        <v>-5183728</v>
-      </c>
-      <c r="D23" s="5">
-        <v>-0.46283583251606619</v>
-      </c>
-      <c r="E23">
-        <v>28</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>